--- a/Vorstudie-Data/results.xlsx
+++ b/Vorstudie-Data/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Vorstudie/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F479B7-652E-2B40-8246-42521DF060CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A04143-3699-A543-B387-5C279D66E9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4200" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:ET17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Vorstudie-Data/results.xlsx
+++ b/Vorstudie-Data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A04143-3699-A543-B387-5C279D66E9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A51B6-D61E-D140-9392-38F3EA373A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="5540" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:ET17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Vorstudie-Data/results.xlsx
+++ b/Vorstudie-Data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A51B6-D61E-D140-9392-38F3EA373A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3CC6A4-C592-1948-8581-3974A5EB0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="5540" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4120" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
     <t>refurl. Weiterleitungs-URL</t>
   </si>
   <si>
-    <t>G01Q10. Wie erstellen Sie Ihr persönliches Codewort? Um Ihre Daten richtig zuordnen zu können, ohne die Geheimhaltung zu verletzen, benötigen wir ein Kenn- oder Codewort. Das Codewort ist so aufgebaut, dass niemand von Ihrem Codewort auf Ihre Person rückschließen kann, auch wir nicht. Sie selbst können Ihr Codewort aber jederzeit rekonstruieren, wenn Sie danach gefragt werden und es vergessen haben sollten. Wir brauchen Ihnen nur die Regel zu verraten, nach der Sie es herstellen müssen.   Wichtige Hinweise  Bitte schreiben Sie alle Zahlen zweistellig, d. h. bei einstelligen Zahlen (z. B. fünf) mit vorangestellter Null (also 05). Bei mehreren Vornamen verwenden Sie bitte nur den ersten Vornamen; das gleiche gilt für zusammengesetzte Vornamen (z. B. Marie-Luise, also Marie).   Bitte benutzen Sie nur die 26 Grundbuchstaben des Alphabets A – Z; verwenden Sie also keine Umlaute (statt „Ä“ schreiben Sie „A“), Aussprachezeichen (statt „Ç“ schreiben Sie „C“) oder Buchstabenverbindungen (statt „Æ“ schreiben Sie „AE“).  Dies sind die Bestandteile Ihres Codeworts   	Die beiden letzten Buchstaben des Geburtsnamens Ihrer Mutter. Wenn Ihnen der Geburtsname Ihrer Mutter nicht bekannt ist, verwenden Sie bitte Ihren eigenen Geburtsnamen. 	Die Anzahl der Buchstaben des (ersten) Vornamens Ihrer Mutter. Wenn Ihnen der Vorname Ihrer Mutter nicht bekannt ist, verwenden Sie bitte Ihren eigenen Vornamen. 	Die beiden letzten Buchstaben des (ersten) Vornamens Ihres Vaters. Wenn Ihnen der Vorname Ihres Vaters nicht bekannt ist, verwenden Sie bitte Ihren eigenen Nachnamen. 	Ihr eigener Geburtstag (nur der Tag, nicht Monat und/oder Jahr).    Beispiel (fiktiv)  Name der Mutter:                                Elke-Hannelore Müller geb. Mayerhofer  Name des Vaters:                                Wolf-Rüdiger Müller  Ihr Geburtstag:                                     09.11.1987  Daraus ergibt sich als Codewort:         ER04LF09   Bitte merken und notieren Sie sich Ihr Codewort. Tragen Sie das Codewort in das folgende Textfeld ein:</t>
-  </si>
-  <si>
-    <t>G05Q05. Mit der beschriebenen Erhebung und Verarbeitung der Daten bin ich einverstanden. Die Aufzeichnung und Auswertung der Daten erfolgt anonymisiert unter Verwendung eines persönlichen Codewortes, das ich selbst erstellt habe und das nur ich kenne. Das heißt, es ist niemandem außer mir möglich, meine Daten mit meinem Namen in Verbindung zu bringen. Das Blatt, auf dem ich dieses Codewort erstellt habe, befindet sich in meinem Besitz. Mein Einverständnis zur Aufbewahrung bzw. Speicherung meiner Daten kann ich jederzeit widerrufen, ohne dass mir daraus Nachteile entstehen. Ich kann jederzeit eine Löschung all meiner Daten verlangen.   Ich bin einverstanden, dass meine vollständig anonymisierten Daten zu Forschungszwecken weiterverwendet werden können. Dazu werden sie mindestens 10 Jahre nach Datenauswertung, bzw. mindestens 10 Jahre nach Erscheinen einer Publikation zu dieser Studie aufbewahrt. </t>
-  </si>
-  <si>
     <t>toonBlue[Anthro1].  [Unecht | Natürlich]</t>
   </si>
   <si>
@@ -656,6 +650,12 @@
   </si>
   <si>
     <t>CH06UT21</t>
+  </si>
+  <si>
+    <t>CodeWort</t>
+  </si>
+  <si>
+    <t>Einverständnis</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:ET17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1065,430 +1065,430 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ET1" t="s">
         <v>147</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:150" x14ac:dyDescent="0.15">
@@ -1496,385 +1496,385 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2">
         <v>291301709</v>
       </c>
       <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>3</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2">
+        <v>5</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2">
+        <v>5</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>5</v>
+      </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2">
+        <v>5</v>
+      </c>
+      <c r="BB2">
+        <v>4</v>
+      </c>
+      <c r="BC2">
+        <v>3</v>
+      </c>
+      <c r="BD2">
+        <v>2</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>5</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>3</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>5</v>
+      </c>
+      <c r="BN2">
+        <v>3</v>
+      </c>
+      <c r="BO2">
+        <v>3</v>
+      </c>
+      <c r="BP2">
+        <v>4</v>
+      </c>
+      <c r="BQ2">
+        <v>5</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>2</v>
+      </c>
+      <c r="BV2">
+        <v>3</v>
+      </c>
+      <c r="BW2">
+        <v>3</v>
+      </c>
+      <c r="BX2">
+        <v>4</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>5</v>
+      </c>
+      <c r="CA2">
+        <v>5</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>2</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>2</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>3</v>
+      </c>
+      <c r="CM2">
+        <v>3</v>
+      </c>
+      <c r="CN2">
+        <v>3</v>
+      </c>
+      <c r="CO2">
+        <v>3</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>2</v>
+      </c>
+      <c r="CR2">
+        <v>3</v>
+      </c>
+      <c r="CS2">
+        <v>4</v>
+      </c>
+      <c r="CT2">
+        <v>4</v>
+      </c>
+      <c r="CU2">
+        <v>2</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>4</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>3</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>3</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>2</v>
+      </c>
+      <c r="DJ2">
+        <v>3</v>
+      </c>
+      <c r="DK2">
+        <v>4</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>2</v>
+      </c>
+      <c r="DN2">
+        <v>3</v>
+      </c>
+      <c r="DO2">
+        <v>3</v>
+      </c>
+      <c r="DP2">
+        <v>4</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>5</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DT2">
+        <v>5</v>
+      </c>
+      <c r="DU2">
+        <v>5</v>
+      </c>
+      <c r="DV2" t="s">
         <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>2</v>
-      </c>
-      <c r="AD2">
-        <v>4</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
-      </c>
-      <c r="AI2">
-        <v>2</v>
-      </c>
-      <c r="AJ2">
-        <v>5</v>
-      </c>
-      <c r="AK2">
-        <v>3</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2">
-        <v>3</v>
-      </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
-        <v>2</v>
-      </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
-      <c r="AR2">
-        <v>4</v>
-      </c>
-      <c r="AS2">
-        <v>2</v>
-      </c>
-      <c r="AT2">
-        <v>5</v>
-      </c>
-      <c r="AU2">
-        <v>5</v>
-      </c>
-      <c r="AV2">
-        <v>3</v>
-      </c>
-      <c r="AW2">
-        <v>5</v>
-      </c>
-      <c r="AX2">
-        <v>4</v>
-      </c>
-      <c r="AY2">
-        <v>5</v>
-      </c>
-      <c r="AZ2">
-        <v>3</v>
-      </c>
-      <c r="BA2">
-        <v>5</v>
-      </c>
-      <c r="BB2">
-        <v>4</v>
-      </c>
-      <c r="BC2">
-        <v>3</v>
-      </c>
-      <c r="BD2">
-        <v>2</v>
-      </c>
-      <c r="BE2">
-        <v>1</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2">
-        <v>5</v>
-      </c>
-      <c r="BH2">
-        <v>1</v>
-      </c>
-      <c r="BI2">
-        <v>1</v>
-      </c>
-      <c r="BJ2">
-        <v>3</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>1</v>
-      </c>
-      <c r="BM2">
-        <v>5</v>
-      </c>
-      <c r="BN2">
-        <v>3</v>
-      </c>
-      <c r="BO2">
-        <v>3</v>
-      </c>
-      <c r="BP2">
-        <v>4</v>
-      </c>
-      <c r="BQ2">
-        <v>5</v>
-      </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BS2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2">
-        <v>2</v>
-      </c>
-      <c r="BV2">
-        <v>3</v>
-      </c>
-      <c r="BW2">
-        <v>3</v>
-      </c>
-      <c r="BX2">
-        <v>4</v>
-      </c>
-      <c r="BY2">
-        <v>1</v>
-      </c>
-      <c r="BZ2">
-        <v>5</v>
-      </c>
-      <c r="CA2">
-        <v>5</v>
-      </c>
-      <c r="CB2">
-        <v>1</v>
-      </c>
-      <c r="CC2">
-        <v>1</v>
-      </c>
-      <c r="CD2">
-        <v>2</v>
-      </c>
-      <c r="CE2">
-        <v>1</v>
-      </c>
-      <c r="CF2">
-        <v>1</v>
-      </c>
-      <c r="CG2">
-        <v>1</v>
-      </c>
-      <c r="CH2">
-        <v>1</v>
-      </c>
-      <c r="CI2">
-        <v>1</v>
-      </c>
-      <c r="CJ2">
-        <v>2</v>
-      </c>
-      <c r="CK2">
-        <v>1</v>
-      </c>
-      <c r="CL2">
-        <v>3</v>
-      </c>
-      <c r="CM2">
-        <v>3</v>
-      </c>
-      <c r="CN2">
-        <v>3</v>
-      </c>
-      <c r="CO2">
-        <v>3</v>
-      </c>
-      <c r="CP2">
-        <v>1</v>
-      </c>
-      <c r="CQ2">
-        <v>2</v>
-      </c>
-      <c r="CR2">
-        <v>3</v>
-      </c>
-      <c r="CS2">
-        <v>4</v>
-      </c>
-      <c r="CT2">
-        <v>4</v>
-      </c>
-      <c r="CU2">
-        <v>2</v>
-      </c>
-      <c r="CV2">
-        <v>1</v>
-      </c>
-      <c r="CW2">
-        <v>4</v>
-      </c>
-      <c r="CX2">
-        <v>1</v>
-      </c>
-      <c r="CY2">
-        <v>1</v>
-      </c>
-      <c r="CZ2">
-        <v>1</v>
-      </c>
-      <c r="DA2">
-        <v>3</v>
-      </c>
-      <c r="DB2">
-        <v>1</v>
-      </c>
-      <c r="DC2">
-        <v>1</v>
-      </c>
-      <c r="DD2">
-        <v>1</v>
-      </c>
-      <c r="DE2">
-        <v>1</v>
-      </c>
-      <c r="DF2">
-        <v>1</v>
-      </c>
-      <c r="DG2">
-        <v>3</v>
-      </c>
-      <c r="DH2">
-        <v>1</v>
-      </c>
-      <c r="DI2">
-        <v>2</v>
-      </c>
-      <c r="DJ2">
-        <v>3</v>
-      </c>
-      <c r="DK2">
-        <v>4</v>
-      </c>
-      <c r="DL2">
-        <v>1</v>
-      </c>
-      <c r="DM2">
-        <v>2</v>
-      </c>
-      <c r="DN2">
-        <v>3</v>
-      </c>
-      <c r="DO2">
-        <v>3</v>
-      </c>
-      <c r="DP2">
-        <v>4</v>
-      </c>
-      <c r="DQ2">
-        <v>1</v>
-      </c>
-      <c r="DR2">
-        <v>5</v>
-      </c>
-      <c r="DS2">
-        <v>1</v>
-      </c>
-      <c r="DT2">
-        <v>5</v>
-      </c>
-      <c r="DU2">
-        <v>5</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>154</v>
       </c>
       <c r="DW2">
         <v>79</v>
       </c>
       <c r="DX2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="EB2">
         <v>1007.17</v>
@@ -1906,28 +1906,28 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>1845704540</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
         <v>157</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2275,16 +2275,16 @@
         <v>2</v>
       </c>
       <c r="DV3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DW3">
         <v>27</v>
       </c>
       <c r="DX3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DZ3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="EB3">
         <v>888.55</v>
@@ -2316,385 +2316,385 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <v>406239978</v>
       </c>
       <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
+      <c r="AY4">
+        <v>3</v>
+      </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>4</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>5</v>
+      </c>
+      <c r="BJ4">
+        <v>2</v>
+      </c>
+      <c r="BK4">
+        <v>5</v>
+      </c>
+      <c r="BL4">
+        <v>3</v>
+      </c>
+      <c r="BM4">
+        <v>4</v>
+      </c>
+      <c r="BN4">
+        <v>4</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>3</v>
+      </c>
+      <c r="BQ4">
+        <v>3</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>3</v>
+      </c>
+      <c r="BZ4">
+        <v>5</v>
+      </c>
+      <c r="CA4">
+        <v>5</v>
+      </c>
+      <c r="CB4">
+        <v>3</v>
+      </c>
+      <c r="CC4">
+        <v>4</v>
+      </c>
+      <c r="CD4">
+        <v>2</v>
+      </c>
+      <c r="CE4">
+        <v>3</v>
+      </c>
+      <c r="CF4">
+        <v>3</v>
+      </c>
+      <c r="CG4">
+        <v>2</v>
+      </c>
+      <c r="CH4">
+        <v>3</v>
+      </c>
+      <c r="CI4">
+        <v>3</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>2</v>
+      </c>
+      <c r="CM4">
+        <v>2</v>
+      </c>
+      <c r="CN4">
+        <v>2</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>2</v>
+      </c>
+      <c r="CR4">
+        <v>3</v>
+      </c>
+      <c r="CS4">
+        <v>2</v>
+      </c>
+      <c r="CT4">
+        <v>3</v>
+      </c>
+      <c r="CU4">
+        <v>2</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>3</v>
+      </c>
+      <c r="CZ4">
+        <v>3</v>
+      </c>
+      <c r="DA4">
+        <v>3</v>
+      </c>
+      <c r="DB4">
+        <v>2</v>
+      </c>
+      <c r="DC4">
+        <v>2</v>
+      </c>
+      <c r="DD4">
+        <v>3</v>
+      </c>
+      <c r="DE4">
+        <v>3</v>
+      </c>
+      <c r="DF4">
+        <v>2</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>2</v>
+      </c>
+      <c r="DI4">
+        <v>2</v>
+      </c>
+      <c r="DJ4">
+        <v>2</v>
+      </c>
+      <c r="DK4">
+        <v>3</v>
+      </c>
+      <c r="DL4">
+        <v>2</v>
+      </c>
+      <c r="DM4">
+        <v>2</v>
+      </c>
+      <c r="DN4">
+        <v>3</v>
+      </c>
+      <c r="DO4">
+        <v>4</v>
+      </c>
+      <c r="DP4">
+        <v>4</v>
+      </c>
+      <c r="DQ4">
+        <v>4</v>
+      </c>
+      <c r="DR4">
+        <v>3</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
+      <c r="DT4">
+        <v>2</v>
+      </c>
+      <c r="DU4">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-      <c r="AF4">
-        <v>4</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AH4">
-        <v>3</v>
-      </c>
-      <c r="AI4">
-        <v>3</v>
-      </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
-        <v>3</v>
-      </c>
-      <c r="AL4">
-        <v>3</v>
-      </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4">
-        <v>2</v>
-      </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
-      <c r="AP4">
-        <v>2</v>
-      </c>
-      <c r="AQ4">
-        <v>2</v>
-      </c>
-      <c r="AR4">
-        <v>3</v>
-      </c>
-      <c r="AS4">
-        <v>3</v>
-      </c>
-      <c r="AT4">
-        <v>4</v>
-      </c>
-      <c r="AU4">
-        <v>2</v>
-      </c>
-      <c r="AV4">
-        <v>3</v>
-      </c>
-      <c r="AW4">
-        <v>4</v>
-      </c>
-      <c r="AX4">
-        <v>5</v>
-      </c>
-      <c r="AY4">
-        <v>3</v>
-      </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
-      <c r="BA4">
-        <v>4</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>2</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
-        <v>5</v>
-      </c>
-      <c r="BJ4">
-        <v>2</v>
-      </c>
-      <c r="BK4">
-        <v>5</v>
-      </c>
-      <c r="BL4">
-        <v>3</v>
-      </c>
-      <c r="BM4">
-        <v>4</v>
-      </c>
-      <c r="BN4">
-        <v>4</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>3</v>
-      </c>
-      <c r="BQ4">
-        <v>3</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>1</v>
-      </c>
-      <c r="BU4">
-        <v>1</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
-      <c r="BW4">
-        <v>1</v>
-      </c>
-      <c r="BX4">
-        <v>1</v>
-      </c>
-      <c r="BY4">
-        <v>3</v>
-      </c>
-      <c r="BZ4">
-        <v>5</v>
-      </c>
-      <c r="CA4">
-        <v>5</v>
-      </c>
-      <c r="CB4">
-        <v>3</v>
-      </c>
-      <c r="CC4">
-        <v>4</v>
-      </c>
-      <c r="CD4">
-        <v>2</v>
-      </c>
-      <c r="CE4">
-        <v>3</v>
-      </c>
-      <c r="CF4">
-        <v>3</v>
-      </c>
-      <c r="CG4">
-        <v>2</v>
-      </c>
-      <c r="CH4">
-        <v>3</v>
-      </c>
-      <c r="CI4">
-        <v>3</v>
-      </c>
-      <c r="CJ4">
-        <v>1</v>
-      </c>
-      <c r="CK4">
-        <v>1</v>
-      </c>
-      <c r="CL4">
-        <v>2</v>
-      </c>
-      <c r="CM4">
-        <v>2</v>
-      </c>
-      <c r="CN4">
-        <v>2</v>
-      </c>
-      <c r="CO4">
-        <v>1</v>
-      </c>
-      <c r="CP4">
-        <v>1</v>
-      </c>
-      <c r="CQ4">
-        <v>2</v>
-      </c>
-      <c r="CR4">
-        <v>3</v>
-      </c>
-      <c r="CS4">
-        <v>2</v>
-      </c>
-      <c r="CT4">
-        <v>3</v>
-      </c>
-      <c r="CU4">
-        <v>2</v>
-      </c>
-      <c r="CV4">
-        <v>1</v>
-      </c>
-      <c r="CW4">
-        <v>1</v>
-      </c>
-      <c r="CX4">
-        <v>1</v>
-      </c>
-      <c r="CY4">
-        <v>3</v>
-      </c>
-      <c r="CZ4">
-        <v>3</v>
-      </c>
-      <c r="DA4">
-        <v>3</v>
-      </c>
-      <c r="DB4">
-        <v>2</v>
-      </c>
-      <c r="DC4">
-        <v>2</v>
-      </c>
-      <c r="DD4">
-        <v>3</v>
-      </c>
-      <c r="DE4">
-        <v>3</v>
-      </c>
-      <c r="DF4">
-        <v>2</v>
-      </c>
-      <c r="DG4">
-        <v>1</v>
-      </c>
-      <c r="DH4">
-        <v>2</v>
-      </c>
-      <c r="DI4">
-        <v>2</v>
-      </c>
-      <c r="DJ4">
-        <v>2</v>
-      </c>
-      <c r="DK4">
-        <v>3</v>
-      </c>
-      <c r="DL4">
-        <v>2</v>
-      </c>
-      <c r="DM4">
-        <v>2</v>
-      </c>
-      <c r="DN4">
-        <v>3</v>
-      </c>
-      <c r="DO4">
-        <v>4</v>
-      </c>
-      <c r="DP4">
-        <v>4</v>
-      </c>
-      <c r="DQ4">
-        <v>4</v>
-      </c>
-      <c r="DR4">
-        <v>3</v>
-      </c>
-      <c r="DS4">
-        <v>1</v>
-      </c>
-      <c r="DT4">
-        <v>2</v>
-      </c>
-      <c r="DU4">
-        <v>1</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>165</v>
       </c>
       <c r="DW4">
         <v>25</v>
       </c>
       <c r="DX4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="EB4">
         <v>720.69</v>
@@ -2726,385 +2726,385 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5">
         <v>291301709</v>
       </c>
       <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
+        <v>2</v>
+      </c>
+      <c r="AR5">
+        <v>4</v>
+      </c>
+      <c r="AS5">
+        <v>2</v>
+      </c>
+      <c r="AT5">
+        <v>5</v>
+      </c>
+      <c r="AU5">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>5</v>
+      </c>
+      <c r="AZ5">
+        <v>3</v>
+      </c>
+      <c r="BA5">
+        <v>5</v>
+      </c>
+      <c r="BB5">
+        <v>4</v>
+      </c>
+      <c r="BC5">
+        <v>3</v>
+      </c>
+      <c r="BD5">
+        <v>2</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>5</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>3</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>5</v>
+      </c>
+      <c r="BN5">
+        <v>3</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BP5">
+        <v>4</v>
+      </c>
+      <c r="BQ5">
+        <v>5</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>2</v>
+      </c>
+      <c r="BV5">
+        <v>3</v>
+      </c>
+      <c r="BW5">
+        <v>3</v>
+      </c>
+      <c r="BX5">
+        <v>4</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>5</v>
+      </c>
+      <c r="CA5">
+        <v>5</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>2</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>2</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>3</v>
+      </c>
+      <c r="CM5">
+        <v>3</v>
+      </c>
+      <c r="CN5">
+        <v>3</v>
+      </c>
+      <c r="CO5">
+        <v>3</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>2</v>
+      </c>
+      <c r="CR5">
+        <v>3</v>
+      </c>
+      <c r="CS5">
+        <v>4</v>
+      </c>
+      <c r="CT5">
+        <v>4</v>
+      </c>
+      <c r="CU5">
+        <v>2</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>4</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>3</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>3</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>2</v>
+      </c>
+      <c r="DJ5">
+        <v>3</v>
+      </c>
+      <c r="DK5">
+        <v>4</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>2</v>
+      </c>
+      <c r="DN5">
+        <v>3</v>
+      </c>
+      <c r="DO5">
+        <v>3</v>
+      </c>
+      <c r="DP5">
+        <v>4</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>5</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+      <c r="DT5">
+        <v>5</v>
+      </c>
+      <c r="DU5">
+        <v>5</v>
+      </c>
+      <c r="DV5" t="s">
         <v>152</v>
-      </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>4</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>4</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <v>2</v>
-      </c>
-      <c r="AJ5">
-        <v>5</v>
-      </c>
-      <c r="AK5">
-        <v>3</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>2</v>
-      </c>
-      <c r="AN5">
-        <v>3</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>2</v>
-      </c>
-      <c r="AQ5">
-        <v>2</v>
-      </c>
-      <c r="AR5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>2</v>
-      </c>
-      <c r="AT5">
-        <v>5</v>
-      </c>
-      <c r="AU5">
-        <v>5</v>
-      </c>
-      <c r="AV5">
-        <v>3</v>
-      </c>
-      <c r="AW5">
-        <v>5</v>
-      </c>
-      <c r="AX5">
-        <v>4</v>
-      </c>
-      <c r="AY5">
-        <v>5</v>
-      </c>
-      <c r="AZ5">
-        <v>3</v>
-      </c>
-      <c r="BA5">
-        <v>5</v>
-      </c>
-      <c r="BB5">
-        <v>4</v>
-      </c>
-      <c r="BC5">
-        <v>3</v>
-      </c>
-      <c r="BD5">
-        <v>2</v>
-      </c>
-      <c r="BE5">
-        <v>1</v>
-      </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>5</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>3</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>5</v>
-      </c>
-      <c r="BN5">
-        <v>3</v>
-      </c>
-      <c r="BO5">
-        <v>3</v>
-      </c>
-      <c r="BP5">
-        <v>4</v>
-      </c>
-      <c r="BQ5">
-        <v>5</v>
-      </c>
-      <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>2</v>
-      </c>
-      <c r="BV5">
-        <v>3</v>
-      </c>
-      <c r="BW5">
-        <v>3</v>
-      </c>
-      <c r="BX5">
-        <v>4</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>5</v>
-      </c>
-      <c r="CA5">
-        <v>5</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-      <c r="CD5">
-        <v>2</v>
-      </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CI5">
-        <v>1</v>
-      </c>
-      <c r="CJ5">
-        <v>2</v>
-      </c>
-      <c r="CK5">
-        <v>1</v>
-      </c>
-      <c r="CL5">
-        <v>3</v>
-      </c>
-      <c r="CM5">
-        <v>3</v>
-      </c>
-      <c r="CN5">
-        <v>3</v>
-      </c>
-      <c r="CO5">
-        <v>3</v>
-      </c>
-      <c r="CP5">
-        <v>1</v>
-      </c>
-      <c r="CQ5">
-        <v>2</v>
-      </c>
-      <c r="CR5">
-        <v>3</v>
-      </c>
-      <c r="CS5">
-        <v>4</v>
-      </c>
-      <c r="CT5">
-        <v>4</v>
-      </c>
-      <c r="CU5">
-        <v>2</v>
-      </c>
-      <c r="CV5">
-        <v>1</v>
-      </c>
-      <c r="CW5">
-        <v>4</v>
-      </c>
-      <c r="CX5">
-        <v>1</v>
-      </c>
-      <c r="CY5">
-        <v>1</v>
-      </c>
-      <c r="CZ5">
-        <v>1</v>
-      </c>
-      <c r="DA5">
-        <v>3</v>
-      </c>
-      <c r="DB5">
-        <v>1</v>
-      </c>
-      <c r="DC5">
-        <v>1</v>
-      </c>
-      <c r="DD5">
-        <v>1</v>
-      </c>
-      <c r="DE5">
-        <v>1</v>
-      </c>
-      <c r="DF5">
-        <v>1</v>
-      </c>
-      <c r="DG5">
-        <v>3</v>
-      </c>
-      <c r="DH5">
-        <v>1</v>
-      </c>
-      <c r="DI5">
-        <v>2</v>
-      </c>
-      <c r="DJ5">
-        <v>3</v>
-      </c>
-      <c r="DK5">
-        <v>4</v>
-      </c>
-      <c r="DL5">
-        <v>1</v>
-      </c>
-      <c r="DM5">
-        <v>2</v>
-      </c>
-      <c r="DN5">
-        <v>3</v>
-      </c>
-      <c r="DO5">
-        <v>3</v>
-      </c>
-      <c r="DP5">
-        <v>4</v>
-      </c>
-      <c r="DQ5">
-        <v>1</v>
-      </c>
-      <c r="DR5">
-        <v>5</v>
-      </c>
-      <c r="DS5">
-        <v>1</v>
-      </c>
-      <c r="DT5">
-        <v>5</v>
-      </c>
-      <c r="DU5">
-        <v>5</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>154</v>
       </c>
       <c r="DW5">
         <v>79</v>
       </c>
       <c r="DX5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="EB5">
         <v>1007.17</v>
@@ -3136,28 +3136,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>47468009</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3505,16 +3505,16 @@
         <v>1</v>
       </c>
       <c r="DV6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DW6">
         <v>85</v>
       </c>
       <c r="DX6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DZ6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="EB6">
         <v>2418.17</v>
@@ -3546,388 +3546,388 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>1549162055</v>
       </c>
       <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>3</v>
+      </c>
+      <c r="AZ7">
+        <v>3</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>3</v>
+      </c>
+      <c r="BJ7">
+        <v>2</v>
+      </c>
+      <c r="BK7">
+        <v>3</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>3</v>
+      </c>
+      <c r="BN7">
+        <v>3</v>
+      </c>
+      <c r="BO7">
+        <v>2</v>
+      </c>
+      <c r="BP7">
+        <v>3</v>
+      </c>
+      <c r="BQ7">
+        <v>3</v>
+      </c>
+      <c r="BR7">
+        <v>2</v>
+      </c>
+      <c r="BS7">
+        <v>3</v>
+      </c>
+      <c r="BT7">
+        <v>3</v>
+      </c>
+      <c r="BU7">
+        <v>3</v>
+      </c>
+      <c r="BV7">
+        <v>3</v>
+      </c>
+      <c r="BW7">
+        <v>3</v>
+      </c>
+      <c r="BX7">
+        <v>3</v>
+      </c>
+      <c r="BY7">
+        <v>3</v>
+      </c>
+      <c r="BZ7">
+        <v>3</v>
+      </c>
+      <c r="CA7">
+        <v>3</v>
+      </c>
+      <c r="CB7">
+        <v>3</v>
+      </c>
+      <c r="CC7">
+        <v>3</v>
+      </c>
+      <c r="CD7">
+        <v>3</v>
+      </c>
+      <c r="CE7">
+        <v>3</v>
+      </c>
+      <c r="CF7">
+        <v>3</v>
+      </c>
+      <c r="CG7">
+        <v>3</v>
+      </c>
+      <c r="CH7">
+        <v>3</v>
+      </c>
+      <c r="CI7">
+        <v>3</v>
+      </c>
+      <c r="CJ7">
+        <v>2</v>
+      </c>
+      <c r="CK7">
+        <v>2</v>
+      </c>
+      <c r="CL7">
+        <v>3</v>
+      </c>
+      <c r="CM7">
+        <v>3</v>
+      </c>
+      <c r="CN7">
+        <v>3</v>
+      </c>
+      <c r="CO7">
+        <v>3</v>
+      </c>
+      <c r="CP7">
+        <v>3</v>
+      </c>
+      <c r="CQ7">
+        <v>3</v>
+      </c>
+      <c r="CR7">
+        <v>3</v>
+      </c>
+      <c r="CS7">
+        <v>3</v>
+      </c>
+      <c r="CT7">
+        <v>3</v>
+      </c>
+      <c r="CU7">
+        <v>3</v>
+      </c>
+      <c r="CV7">
+        <v>2</v>
+      </c>
+      <c r="CW7">
+        <v>2</v>
+      </c>
+      <c r="CX7">
+        <v>2</v>
+      </c>
+      <c r="CY7">
+        <v>2</v>
+      </c>
+      <c r="CZ7">
+        <v>2</v>
+      </c>
+      <c r="DA7">
+        <v>2</v>
+      </c>
+      <c r="DB7">
+        <v>2</v>
+      </c>
+      <c r="DC7">
+        <v>3</v>
+      </c>
+      <c r="DD7">
+        <v>2</v>
+      </c>
+      <c r="DE7">
+        <v>2</v>
+      </c>
+      <c r="DF7">
+        <v>2</v>
+      </c>
+      <c r="DG7">
+        <v>3</v>
+      </c>
+      <c r="DH7">
+        <v>3</v>
+      </c>
+      <c r="DI7">
+        <v>3</v>
+      </c>
+      <c r="DJ7">
+        <v>3</v>
+      </c>
+      <c r="DK7">
+        <v>3</v>
+      </c>
+      <c r="DL7">
+        <v>3</v>
+      </c>
+      <c r="DM7">
+        <v>3</v>
+      </c>
+      <c r="DN7">
+        <v>3</v>
+      </c>
+      <c r="DO7">
+        <v>3</v>
+      </c>
+      <c r="DP7">
+        <v>3</v>
+      </c>
+      <c r="DQ7">
+        <v>3</v>
+      </c>
+      <c r="DR7">
+        <v>3</v>
+      </c>
+      <c r="DS7">
+        <v>3</v>
+      </c>
+      <c r="DT7">
+        <v>3</v>
+      </c>
+      <c r="DU7">
+        <v>2</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW7">
+        <v>5</v>
+      </c>
+      <c r="DX7" t="s">
         <v>172</v>
       </c>
-      <c r="G7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="DY7" t="s">
         <v>173</v>
       </c>
-      <c r="J7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <v>4</v>
-      </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-      <c r="AF7">
-        <v>3</v>
-      </c>
-      <c r="AG7">
-        <v>2</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
-      <c r="AI7">
-        <v>3</v>
-      </c>
-      <c r="AJ7">
-        <v>4</v>
-      </c>
-      <c r="AK7">
-        <v>3</v>
-      </c>
-      <c r="AL7">
-        <v>3</v>
-      </c>
-      <c r="AM7">
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AQ7">
-        <v>3</v>
-      </c>
-      <c r="AR7">
-        <v>3</v>
-      </c>
-      <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>3</v>
-      </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AW7">
-        <v>3</v>
-      </c>
-      <c r="AX7">
-        <v>3</v>
-      </c>
-      <c r="AY7">
-        <v>3</v>
-      </c>
-      <c r="AZ7">
-        <v>3</v>
-      </c>
-      <c r="BA7">
-        <v>3</v>
-      </c>
-      <c r="BB7">
-        <v>3</v>
-      </c>
-      <c r="BC7">
-        <v>2</v>
-      </c>
-      <c r="BD7">
-        <v>2</v>
-      </c>
-      <c r="BE7">
-        <v>1</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>3</v>
-      </c>
-      <c r="BJ7">
-        <v>2</v>
-      </c>
-      <c r="BK7">
-        <v>3</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
-        <v>3</v>
-      </c>
-      <c r="BN7">
-        <v>3</v>
-      </c>
-      <c r="BO7">
-        <v>2</v>
-      </c>
-      <c r="BP7">
-        <v>3</v>
-      </c>
-      <c r="BQ7">
-        <v>3</v>
-      </c>
-      <c r="BR7">
-        <v>2</v>
-      </c>
-      <c r="BS7">
-        <v>3</v>
-      </c>
-      <c r="BT7">
-        <v>3</v>
-      </c>
-      <c r="BU7">
-        <v>3</v>
-      </c>
-      <c r="BV7">
-        <v>3</v>
-      </c>
-      <c r="BW7">
-        <v>3</v>
-      </c>
-      <c r="BX7">
-        <v>3</v>
-      </c>
-      <c r="BY7">
-        <v>3</v>
-      </c>
-      <c r="BZ7">
-        <v>3</v>
-      </c>
-      <c r="CA7">
-        <v>3</v>
-      </c>
-      <c r="CB7">
-        <v>3</v>
-      </c>
-      <c r="CC7">
-        <v>3</v>
-      </c>
-      <c r="CD7">
-        <v>3</v>
-      </c>
-      <c r="CE7">
-        <v>3</v>
-      </c>
-      <c r="CF7">
-        <v>3</v>
-      </c>
-      <c r="CG7">
-        <v>3</v>
-      </c>
-      <c r="CH7">
-        <v>3</v>
-      </c>
-      <c r="CI7">
-        <v>3</v>
-      </c>
-      <c r="CJ7">
-        <v>2</v>
-      </c>
-      <c r="CK7">
-        <v>2</v>
-      </c>
-      <c r="CL7">
-        <v>3</v>
-      </c>
-      <c r="CM7">
-        <v>3</v>
-      </c>
-      <c r="CN7">
-        <v>3</v>
-      </c>
-      <c r="CO7">
-        <v>3</v>
-      </c>
-      <c r="CP7">
-        <v>3</v>
-      </c>
-      <c r="CQ7">
-        <v>3</v>
-      </c>
-      <c r="CR7">
-        <v>3</v>
-      </c>
-      <c r="CS7">
-        <v>3</v>
-      </c>
-      <c r="CT7">
-        <v>3</v>
-      </c>
-      <c r="CU7">
-        <v>3</v>
-      </c>
-      <c r="CV7">
-        <v>2</v>
-      </c>
-      <c r="CW7">
-        <v>2</v>
-      </c>
-      <c r="CX7">
-        <v>2</v>
-      </c>
-      <c r="CY7">
-        <v>2</v>
-      </c>
-      <c r="CZ7">
-        <v>2</v>
-      </c>
-      <c r="DA7">
-        <v>2</v>
-      </c>
-      <c r="DB7">
-        <v>2</v>
-      </c>
-      <c r="DC7">
-        <v>3</v>
-      </c>
-      <c r="DD7">
-        <v>2</v>
-      </c>
-      <c r="DE7">
-        <v>2</v>
-      </c>
-      <c r="DF7">
-        <v>2</v>
-      </c>
-      <c r="DG7">
-        <v>3</v>
-      </c>
-      <c r="DH7">
-        <v>3</v>
-      </c>
-      <c r="DI7">
-        <v>3</v>
-      </c>
-      <c r="DJ7">
-        <v>3</v>
-      </c>
-      <c r="DK7">
-        <v>3</v>
-      </c>
-      <c r="DL7">
-        <v>3</v>
-      </c>
-      <c r="DM7">
-        <v>3</v>
-      </c>
-      <c r="DN7">
-        <v>3</v>
-      </c>
-      <c r="DO7">
-        <v>3</v>
-      </c>
-      <c r="DP7">
-        <v>3</v>
-      </c>
-      <c r="DQ7">
-        <v>3</v>
-      </c>
-      <c r="DR7">
-        <v>3</v>
-      </c>
-      <c r="DS7">
-        <v>3</v>
-      </c>
-      <c r="DT7">
-        <v>3</v>
-      </c>
-      <c r="DU7">
-        <v>2</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>154</v>
-      </c>
-      <c r="DW7">
-        <v>5</v>
-      </c>
-      <c r="DX7" t="s">
+      <c r="DZ7" t="s">
         <v>174</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>175</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>176</v>
       </c>
       <c r="EB7">
         <v>1032.1500000000001</v>
@@ -3959,28 +3959,28 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>994745494</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" t="s">
         <v>177</v>
       </c>
-      <c r="I8" t="s">
-        <v>179</v>
-      </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -4328,16 +4328,16 @@
         <v>3</v>
       </c>
       <c r="DV8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DW8">
         <v>58</v>
       </c>
       <c r="DX8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="EB8">
         <v>2760.46</v>
@@ -4369,28 +4369,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>305366018</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
         <v>180</v>
       </c>
-      <c r="I9" t="s">
-        <v>182</v>
-      </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -4738,16 +4738,16 @@
         <v>1</v>
       </c>
       <c r="DV9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DW9">
         <v>31</v>
       </c>
       <c r="DX9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="EB9">
         <v>1053.6300000000001</v>
@@ -4779,385 +4779,385 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10">
         <v>1581809427</v>
       </c>
       <c r="F10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>4</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AR10">
+        <v>3</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>4</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>3</v>
+      </c>
+      <c r="BD10">
+        <v>3</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>4</v>
+      </c>
+      <c r="BK10">
+        <v>4</v>
+      </c>
+      <c r="BL10">
+        <v>2</v>
+      </c>
+      <c r="BM10">
+        <v>4</v>
+      </c>
+      <c r="BN10">
+        <v>4</v>
+      </c>
+      <c r="BO10">
+        <v>3</v>
+      </c>
+      <c r="BP10">
+        <v>2</v>
+      </c>
+      <c r="BQ10">
+        <v>3</v>
+      </c>
+      <c r="BR10">
+        <v>2</v>
+      </c>
+      <c r="BS10">
+        <v>4</v>
+      </c>
+      <c r="BT10">
+        <v>3</v>
+      </c>
+      <c r="BU10">
+        <v>3</v>
+      </c>
+      <c r="BV10">
+        <v>3</v>
+      </c>
+      <c r="BW10">
+        <v>3</v>
+      </c>
+      <c r="BX10">
+        <v>2</v>
+      </c>
+      <c r="BY10">
+        <v>3</v>
+      </c>
+      <c r="BZ10">
+        <v>3</v>
+      </c>
+      <c r="CA10">
+        <v>3</v>
+      </c>
+      <c r="CB10">
+        <v>4</v>
+      </c>
+      <c r="CC10">
+        <v>4</v>
+      </c>
+      <c r="CD10">
+        <v>4</v>
+      </c>
+      <c r="CE10">
+        <v>4</v>
+      </c>
+      <c r="CF10">
+        <v>4</v>
+      </c>
+      <c r="CG10">
+        <v>4</v>
+      </c>
+      <c r="CH10">
+        <v>4</v>
+      </c>
+      <c r="CI10">
+        <v>4</v>
+      </c>
+      <c r="CJ10">
+        <v>4</v>
+      </c>
+      <c r="CK10">
+        <v>3</v>
+      </c>
+      <c r="CL10">
+        <v>3</v>
+      </c>
+      <c r="CM10">
+        <v>3</v>
+      </c>
+      <c r="CN10">
+        <v>3</v>
+      </c>
+      <c r="CO10">
+        <v>3</v>
+      </c>
+      <c r="CP10">
+        <v>3</v>
+      </c>
+      <c r="CQ10">
+        <v>4</v>
+      </c>
+      <c r="CR10">
+        <v>4</v>
+      </c>
+      <c r="CS10">
+        <v>3</v>
+      </c>
+      <c r="CT10">
+        <v>4</v>
+      </c>
+      <c r="CU10">
+        <v>3</v>
+      </c>
+      <c r="CV10">
+        <v>3</v>
+      </c>
+      <c r="CW10">
+        <v>3</v>
+      </c>
+      <c r="CX10">
+        <v>2</v>
+      </c>
+      <c r="CY10">
+        <v>2</v>
+      </c>
+      <c r="CZ10">
+        <v>4</v>
+      </c>
+      <c r="DA10">
+        <v>4</v>
+      </c>
+      <c r="DB10">
+        <v>3</v>
+      </c>
+      <c r="DC10">
+        <v>4</v>
+      </c>
+      <c r="DD10">
+        <v>4</v>
+      </c>
+      <c r="DE10">
+        <v>4</v>
+      </c>
+      <c r="DF10">
+        <v>4</v>
+      </c>
+      <c r="DG10">
+        <v>3</v>
+      </c>
+      <c r="DH10">
+        <v>2</v>
+      </c>
+      <c r="DI10">
+        <v>2</v>
+      </c>
+      <c r="DJ10">
+        <v>3</v>
+      </c>
+      <c r="DK10">
+        <v>3</v>
+      </c>
+      <c r="DL10">
+        <v>2</v>
+      </c>
+      <c r="DM10">
+        <v>3</v>
+      </c>
+      <c r="DN10">
+        <v>3</v>
+      </c>
+      <c r="DO10">
+        <v>4</v>
+      </c>
+      <c r="DP10">
+        <v>3</v>
+      </c>
+      <c r="DQ10">
+        <v>4</v>
+      </c>
+      <c r="DR10">
+        <v>3</v>
+      </c>
+      <c r="DS10">
+        <v>3</v>
+      </c>
+      <c r="DT10">
+        <v>2</v>
+      </c>
+      <c r="DU10">
+        <v>2</v>
+      </c>
+      <c r="DV10" t="s">
         <v>185</v>
-      </c>
-      <c r="G10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>4</v>
-      </c>
-      <c r="Z10">
-        <v>4</v>
-      </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>4</v>
-      </c>
-      <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
-        <v>4</v>
-      </c>
-      <c r="AE10">
-        <v>4</v>
-      </c>
-      <c r="AF10">
-        <v>3</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
-      </c>
-      <c r="AH10">
-        <v>4</v>
-      </c>
-      <c r="AI10">
-        <v>4</v>
-      </c>
-      <c r="AJ10">
-        <v>4</v>
-      </c>
-      <c r="AK10">
-        <v>4</v>
-      </c>
-      <c r="AL10">
-        <v>5</v>
-      </c>
-      <c r="AM10">
-        <v>4</v>
-      </c>
-      <c r="AN10">
-        <v>4</v>
-      </c>
-      <c r="AO10">
-        <v>4</v>
-      </c>
-      <c r="AP10">
-        <v>4</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AR10">
-        <v>3</v>
-      </c>
-      <c r="AS10">
-        <v>3</v>
-      </c>
-      <c r="AT10">
-        <v>4</v>
-      </c>
-      <c r="AU10">
-        <v>3</v>
-      </c>
-      <c r="AV10">
-        <v>4</v>
-      </c>
-      <c r="AW10">
-        <v>4</v>
-      </c>
-      <c r="AX10">
-        <v>4</v>
-      </c>
-      <c r="AY10">
-        <v>4</v>
-      </c>
-      <c r="AZ10">
-        <v>4</v>
-      </c>
-      <c r="BA10">
-        <v>4</v>
-      </c>
-      <c r="BB10">
-        <v>4</v>
-      </c>
-      <c r="BC10">
-        <v>3</v>
-      </c>
-      <c r="BD10">
-        <v>3</v>
-      </c>
-      <c r="BE10">
-        <v>1</v>
-      </c>
-      <c r="BF10">
-        <v>2</v>
-      </c>
-      <c r="BG10">
-        <v>4</v>
-      </c>
-      <c r="BH10">
-        <v>1</v>
-      </c>
-      <c r="BI10">
-        <v>2</v>
-      </c>
-      <c r="BJ10">
-        <v>4</v>
-      </c>
-      <c r="BK10">
-        <v>4</v>
-      </c>
-      <c r="BL10">
-        <v>2</v>
-      </c>
-      <c r="BM10">
-        <v>4</v>
-      </c>
-      <c r="BN10">
-        <v>4</v>
-      </c>
-      <c r="BO10">
-        <v>3</v>
-      </c>
-      <c r="BP10">
-        <v>2</v>
-      </c>
-      <c r="BQ10">
-        <v>3</v>
-      </c>
-      <c r="BR10">
-        <v>2</v>
-      </c>
-      <c r="BS10">
-        <v>4</v>
-      </c>
-      <c r="BT10">
-        <v>3</v>
-      </c>
-      <c r="BU10">
-        <v>3</v>
-      </c>
-      <c r="BV10">
-        <v>3</v>
-      </c>
-      <c r="BW10">
-        <v>3</v>
-      </c>
-      <c r="BX10">
-        <v>2</v>
-      </c>
-      <c r="BY10">
-        <v>3</v>
-      </c>
-      <c r="BZ10">
-        <v>3</v>
-      </c>
-      <c r="CA10">
-        <v>3</v>
-      </c>
-      <c r="CB10">
-        <v>4</v>
-      </c>
-      <c r="CC10">
-        <v>4</v>
-      </c>
-      <c r="CD10">
-        <v>4</v>
-      </c>
-      <c r="CE10">
-        <v>4</v>
-      </c>
-      <c r="CF10">
-        <v>4</v>
-      </c>
-      <c r="CG10">
-        <v>4</v>
-      </c>
-      <c r="CH10">
-        <v>4</v>
-      </c>
-      <c r="CI10">
-        <v>4</v>
-      </c>
-      <c r="CJ10">
-        <v>4</v>
-      </c>
-      <c r="CK10">
-        <v>3</v>
-      </c>
-      <c r="CL10">
-        <v>3</v>
-      </c>
-      <c r="CM10">
-        <v>3</v>
-      </c>
-      <c r="CN10">
-        <v>3</v>
-      </c>
-      <c r="CO10">
-        <v>3</v>
-      </c>
-      <c r="CP10">
-        <v>3</v>
-      </c>
-      <c r="CQ10">
-        <v>4</v>
-      </c>
-      <c r="CR10">
-        <v>4</v>
-      </c>
-      <c r="CS10">
-        <v>3</v>
-      </c>
-      <c r="CT10">
-        <v>4</v>
-      </c>
-      <c r="CU10">
-        <v>3</v>
-      </c>
-      <c r="CV10">
-        <v>3</v>
-      </c>
-      <c r="CW10">
-        <v>3</v>
-      </c>
-      <c r="CX10">
-        <v>2</v>
-      </c>
-      <c r="CY10">
-        <v>2</v>
-      </c>
-      <c r="CZ10">
-        <v>4</v>
-      </c>
-      <c r="DA10">
-        <v>4</v>
-      </c>
-      <c r="DB10">
-        <v>3</v>
-      </c>
-      <c r="DC10">
-        <v>4</v>
-      </c>
-      <c r="DD10">
-        <v>4</v>
-      </c>
-      <c r="DE10">
-        <v>4</v>
-      </c>
-      <c r="DF10">
-        <v>4</v>
-      </c>
-      <c r="DG10">
-        <v>3</v>
-      </c>
-      <c r="DH10">
-        <v>2</v>
-      </c>
-      <c r="DI10">
-        <v>2</v>
-      </c>
-      <c r="DJ10">
-        <v>3</v>
-      </c>
-      <c r="DK10">
-        <v>3</v>
-      </c>
-      <c r="DL10">
-        <v>2</v>
-      </c>
-      <c r="DM10">
-        <v>3</v>
-      </c>
-      <c r="DN10">
-        <v>3</v>
-      </c>
-      <c r="DO10">
-        <v>4</v>
-      </c>
-      <c r="DP10">
-        <v>3</v>
-      </c>
-      <c r="DQ10">
-        <v>4</v>
-      </c>
-      <c r="DR10">
-        <v>3</v>
-      </c>
-      <c r="DS10">
-        <v>3</v>
-      </c>
-      <c r="DT10">
-        <v>2</v>
-      </c>
-      <c r="DU10">
-        <v>2</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>187</v>
       </c>
       <c r="DW10">
         <v>25</v>
       </c>
       <c r="DX10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DZ10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="EB10">
         <v>566.05999999999995</v>
@@ -5189,28 +5189,28 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>294010771</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="I11" t="s">
-        <v>190</v>
-      </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5558,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="DV11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DW11">
         <v>58</v>
       </c>
       <c r="DX11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="EB11">
         <v>620.66999999999996</v>
@@ -5599,28 +5599,28 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>348437590</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" t="s">
         <v>191</v>
       </c>
-      <c r="I12" t="s">
-        <v>193</v>
-      </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5968,16 +5968,16 @@
         <v>3</v>
       </c>
       <c r="DV12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DW12">
         <v>58</v>
       </c>
       <c r="DX12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="EB12">
         <v>517.58000000000004</v>
@@ -6009,385 +6009,385 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>1418279519</v>
       </c>
       <c r="F13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>4</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>4</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>2</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
+      <c r="AZ13">
+        <v>2</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>5</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>3</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
+      </c>
+      <c r="BF13">
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <v>2</v>
+      </c>
+      <c r="BI13">
+        <v>4</v>
+      </c>
+      <c r="BJ13">
+        <v>3</v>
+      </c>
+      <c r="BK13">
+        <v>5</v>
+      </c>
+      <c r="BL13">
+        <v>3</v>
+      </c>
+      <c r="BM13">
+        <v>5</v>
+      </c>
+      <c r="BN13">
+        <v>5</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>2</v>
+      </c>
+      <c r="BQ13">
+        <v>2</v>
+      </c>
+      <c r="BR13">
+        <v>2</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>2</v>
+      </c>
+      <c r="BU13">
+        <v>2</v>
+      </c>
+      <c r="BV13">
+        <v>2</v>
+      </c>
+      <c r="BW13">
+        <v>2</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>5</v>
+      </c>
+      <c r="BZ13">
+        <v>5</v>
+      </c>
+      <c r="CA13">
+        <v>3</v>
+      </c>
+      <c r="CB13">
+        <v>1</v>
+      </c>
+      <c r="CC13">
+        <v>3</v>
+      </c>
+      <c r="CD13">
+        <v>2</v>
+      </c>
+      <c r="CE13">
+        <v>2</v>
+      </c>
+      <c r="CF13">
+        <v>4</v>
+      </c>
+      <c r="CG13">
+        <v>3</v>
+      </c>
+      <c r="CH13">
+        <v>3</v>
+      </c>
+      <c r="CI13">
+        <v>3</v>
+      </c>
+      <c r="CJ13">
+        <v>2</v>
+      </c>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>2</v>
+      </c>
+      <c r="CM13">
+        <v>2</v>
+      </c>
+      <c r="CN13">
+        <v>4</v>
+      </c>
+      <c r="CO13">
+        <v>2</v>
+      </c>
+      <c r="CP13">
+        <v>3</v>
+      </c>
+      <c r="CQ13">
+        <v>2</v>
+      </c>
+      <c r="CR13">
+        <v>4</v>
+      </c>
+      <c r="CS13">
+        <v>3</v>
+      </c>
+      <c r="CT13">
+        <v>4</v>
+      </c>
+      <c r="CU13">
+        <v>3</v>
+      </c>
+      <c r="CV13">
+        <v>4</v>
+      </c>
+      <c r="CW13">
+        <v>1</v>
+      </c>
+      <c r="CX13">
+        <v>2</v>
+      </c>
+      <c r="CY13">
+        <v>3</v>
+      </c>
+      <c r="CZ13">
+        <v>3</v>
+      </c>
+      <c r="DA13">
+        <v>3</v>
+      </c>
+      <c r="DB13">
+        <v>2</v>
+      </c>
+      <c r="DC13">
+        <v>4</v>
+      </c>
+      <c r="DD13">
+        <v>3</v>
+      </c>
+      <c r="DE13">
+        <v>4</v>
+      </c>
+      <c r="DF13">
+        <v>4</v>
+      </c>
+      <c r="DG13">
+        <v>3</v>
+      </c>
+      <c r="DH13">
+        <v>2</v>
+      </c>
+      <c r="DI13">
+        <v>1</v>
+      </c>
+      <c r="DJ13">
+        <v>2</v>
+      </c>
+      <c r="DK13">
+        <v>3</v>
+      </c>
+      <c r="DL13">
+        <v>2</v>
+      </c>
+      <c r="DM13">
+        <v>3</v>
+      </c>
+      <c r="DN13">
+        <v>2</v>
+      </c>
+      <c r="DO13">
+        <v>2</v>
+      </c>
+      <c r="DP13">
+        <v>2</v>
+      </c>
+      <c r="DQ13">
+        <v>1</v>
+      </c>
+      <c r="DR13">
+        <v>1</v>
+      </c>
+      <c r="DS13">
+        <v>4</v>
+      </c>
+      <c r="DT13">
+        <v>4</v>
+      </c>
+      <c r="DU13">
+        <v>5</v>
+      </c>
+      <c r="DV13" t="s">
         <v>195</v>
-      </c>
-      <c r="G13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13">
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>4</v>
-      </c>
-      <c r="Z13">
-        <v>4</v>
-      </c>
-      <c r="AA13">
-        <v>3</v>
-      </c>
-      <c r="AB13">
-        <v>5</v>
-      </c>
-      <c r="AC13">
-        <v>4</v>
-      </c>
-      <c r="AD13">
-        <v>4</v>
-      </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>2</v>
-      </c>
-      <c r="AH13">
-        <v>4</v>
-      </c>
-      <c r="AI13">
-        <v>3</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
-      <c r="AK13">
-        <v>2</v>
-      </c>
-      <c r="AL13">
-        <v>5</v>
-      </c>
-      <c r="AM13">
-        <v>3</v>
-      </c>
-      <c r="AN13">
-        <v>4</v>
-      </c>
-      <c r="AO13">
-        <v>3</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>2</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
-      <c r="AS13">
-        <v>2</v>
-      </c>
-      <c r="AT13">
-        <v>2</v>
-      </c>
-      <c r="AU13">
-        <v>2</v>
-      </c>
-      <c r="AV13">
-        <v>3</v>
-      </c>
-      <c r="AW13">
-        <v>2</v>
-      </c>
-      <c r="AX13">
-        <v>2</v>
-      </c>
-      <c r="AY13">
-        <v>2</v>
-      </c>
-      <c r="AZ13">
-        <v>2</v>
-      </c>
-      <c r="BA13">
-        <v>3</v>
-      </c>
-      <c r="BB13">
-        <v>5</v>
-      </c>
-      <c r="BC13">
-        <v>1</v>
-      </c>
-      <c r="BD13">
-        <v>3</v>
-      </c>
-      <c r="BE13">
-        <v>2</v>
-      </c>
-      <c r="BF13">
-        <v>3</v>
-      </c>
-      <c r="BG13">
-        <v>3</v>
-      </c>
-      <c r="BH13">
-        <v>2</v>
-      </c>
-      <c r="BI13">
-        <v>4</v>
-      </c>
-      <c r="BJ13">
-        <v>3</v>
-      </c>
-      <c r="BK13">
-        <v>5</v>
-      </c>
-      <c r="BL13">
-        <v>3</v>
-      </c>
-      <c r="BM13">
-        <v>5</v>
-      </c>
-      <c r="BN13">
-        <v>5</v>
-      </c>
-      <c r="BO13">
-        <v>1</v>
-      </c>
-      <c r="BP13">
-        <v>2</v>
-      </c>
-      <c r="BQ13">
-        <v>2</v>
-      </c>
-      <c r="BR13">
-        <v>2</v>
-      </c>
-      <c r="BS13">
-        <v>1</v>
-      </c>
-      <c r="BT13">
-        <v>2</v>
-      </c>
-      <c r="BU13">
-        <v>2</v>
-      </c>
-      <c r="BV13">
-        <v>2</v>
-      </c>
-      <c r="BW13">
-        <v>2</v>
-      </c>
-      <c r="BX13">
-        <v>1</v>
-      </c>
-      <c r="BY13">
-        <v>5</v>
-      </c>
-      <c r="BZ13">
-        <v>5</v>
-      </c>
-      <c r="CA13">
-        <v>3</v>
-      </c>
-      <c r="CB13">
-        <v>1</v>
-      </c>
-      <c r="CC13">
-        <v>3</v>
-      </c>
-      <c r="CD13">
-        <v>2</v>
-      </c>
-      <c r="CE13">
-        <v>2</v>
-      </c>
-      <c r="CF13">
-        <v>4</v>
-      </c>
-      <c r="CG13">
-        <v>3</v>
-      </c>
-      <c r="CH13">
-        <v>3</v>
-      </c>
-      <c r="CI13">
-        <v>3</v>
-      </c>
-      <c r="CJ13">
-        <v>2</v>
-      </c>
-      <c r="CK13">
-        <v>1</v>
-      </c>
-      <c r="CL13">
-        <v>2</v>
-      </c>
-      <c r="CM13">
-        <v>2</v>
-      </c>
-      <c r="CN13">
-        <v>4</v>
-      </c>
-      <c r="CO13">
-        <v>2</v>
-      </c>
-      <c r="CP13">
-        <v>3</v>
-      </c>
-      <c r="CQ13">
-        <v>2</v>
-      </c>
-      <c r="CR13">
-        <v>4</v>
-      </c>
-      <c r="CS13">
-        <v>3</v>
-      </c>
-      <c r="CT13">
-        <v>4</v>
-      </c>
-      <c r="CU13">
-        <v>3</v>
-      </c>
-      <c r="CV13">
-        <v>4</v>
-      </c>
-      <c r="CW13">
-        <v>1</v>
-      </c>
-      <c r="CX13">
-        <v>2</v>
-      </c>
-      <c r="CY13">
-        <v>3</v>
-      </c>
-      <c r="CZ13">
-        <v>3</v>
-      </c>
-      <c r="DA13">
-        <v>3</v>
-      </c>
-      <c r="DB13">
-        <v>2</v>
-      </c>
-      <c r="DC13">
-        <v>4</v>
-      </c>
-      <c r="DD13">
-        <v>3</v>
-      </c>
-      <c r="DE13">
-        <v>4</v>
-      </c>
-      <c r="DF13">
-        <v>4</v>
-      </c>
-      <c r="DG13">
-        <v>3</v>
-      </c>
-      <c r="DH13">
-        <v>2</v>
-      </c>
-      <c r="DI13">
-        <v>1</v>
-      </c>
-      <c r="DJ13">
-        <v>2</v>
-      </c>
-      <c r="DK13">
-        <v>3</v>
-      </c>
-      <c r="DL13">
-        <v>2</v>
-      </c>
-      <c r="DM13">
-        <v>3</v>
-      </c>
-      <c r="DN13">
-        <v>2</v>
-      </c>
-      <c r="DO13">
-        <v>2</v>
-      </c>
-      <c r="DP13">
-        <v>2</v>
-      </c>
-      <c r="DQ13">
-        <v>1</v>
-      </c>
-      <c r="DR13">
-        <v>1</v>
-      </c>
-      <c r="DS13">
-        <v>4</v>
-      </c>
-      <c r="DT13">
-        <v>4</v>
-      </c>
-      <c r="DU13">
-        <v>5</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>197</v>
       </c>
       <c r="DW13">
         <v>27</v>
       </c>
       <c r="DX13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DZ13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="EB13">
         <v>758.53</v>
@@ -6419,28 +6419,28 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>392521809</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" t="s">
         <v>199</v>
       </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -6788,16 +6788,16 @@
         <v>1</v>
       </c>
       <c r="DV14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DW14">
         <v>54</v>
       </c>
       <c r="DX14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DZ14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="EB14">
         <v>830.17</v>
@@ -6829,28 +6829,28 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15">
         <v>141051380</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
         <v>202</v>
       </c>
-      <c r="I15" t="s">
-        <v>204</v>
-      </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -7198,16 +7198,16 @@
         <v>3</v>
       </c>
       <c r="DV15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DW15">
         <v>28</v>
       </c>
       <c r="DX15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="DZ15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="EB15">
         <v>795.63</v>
@@ -7239,28 +7239,28 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16">
         <v>529346401</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" t="s">
         <v>206</v>
       </c>
-      <c r="I16" t="s">
-        <v>208</v>
-      </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -7608,16 +7608,16 @@
         <v>2</v>
       </c>
       <c r="DV16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DW16">
         <v>59</v>
       </c>
       <c r="DX16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="DZ16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="EB16">
         <v>500.36</v>
@@ -7649,28 +7649,28 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>1246458658</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
         <v>209</v>
       </c>
-      <c r="I17" t="s">
-        <v>211</v>
-      </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8018,16 +8018,16 @@
         <v>3</v>
       </c>
       <c r="DV17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DW17">
         <v>28</v>
       </c>
       <c r="DX17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="DZ17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="EB17">
         <v>975.92</v>

--- a/Vorstudie-Data/results.xlsx
+++ b/Vorstudie-Data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3CC6A4-C592-1948-8581-3974A5EB0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0EA02-8451-A14F-89D5-B340A4A79B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4120" windowWidth="30240" windowHeight="14100" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="760" windowWidth="26260" windowHeight="17460" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
   <si>
     <t>id. Antwort ID</t>
   </si>
@@ -656,6 +656,117 @@
   </si>
   <si>
     <t>Einverständnis</t>
+  </si>
+  <si>
+    <t>https://unihamburg.sona-systems.com/</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:27:06</t>
+  </si>
+  <si>
+    <t>2024-06-20 13:05:13</t>
+  </si>
+  <si>
+    <t>LL08AS28</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:56:06</t>
+  </si>
+  <si>
+    <t>2024-06-20 14:46:28</t>
+  </si>
+  <si>
+    <t>IG05AS16</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:12:50</t>
+  </si>
+  <si>
+    <t>2024-06-20 15:03:23</t>
+  </si>
+  <si>
+    <t>NN04GO10</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:38:49</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:33:10</t>
+  </si>
+  <si>
+    <t>NN05CO17</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:49:34</t>
+  </si>
+  <si>
+    <t>2024-06-20 17:41:04</t>
+  </si>
+  <si>
+    <t>IG08RT16</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:17:55</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:08:29</t>
+  </si>
+  <si>
+    <t>JE5NK20</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:01:35</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:51:15</t>
+  </si>
+  <si>
+    <t>NN04ED11</t>
+  </si>
+  <si>
+    <t>2024-06-20 20:05:56</t>
+  </si>
+  <si>
+    <t>2024-06-20 19:57:46</t>
+  </si>
+  <si>
+    <t>CK07AN19</t>
+  </si>
+  <si>
+    <t>2024-06-21 11:00:09</t>
+  </si>
+  <si>
+    <t>2024-06-21 10:44:42</t>
+  </si>
+  <si>
+    <t>NA05IK24</t>
+  </si>
+  <si>
+    <t>2024-06-21 12:12:26</t>
+  </si>
+  <si>
+    <t>2024-06-21 11:31:21</t>
+  </si>
+  <si>
+    <t>RT09RT16</t>
+  </si>
+  <si>
+    <t>2024-06-21 12:54:55</t>
+  </si>
+  <si>
+    <t>2024-06-21 12:37:48</t>
+  </si>
+  <si>
+    <t>SS03AN29</t>
+  </si>
+  <si>
+    <t>2024-06-21 14:05:58</t>
+  </si>
+  <si>
+    <t>2024-06-21 13:50:59</t>
+  </si>
+  <si>
+    <t>NN05AI21</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ET17"/>
+  <dimension ref="A1:ET29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="EA1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8054,6 +8165,4953 @@
         <v>28.06</v>
       </c>
     </row>
+    <row r="18" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>1528870314</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
+      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>5</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AJ18">
+        <v>5</v>
+      </c>
+      <c r="AK18">
+        <v>5</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>5</v>
+      </c>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+      <c r="AP18">
+        <v>4</v>
+      </c>
+      <c r="AQ18">
+        <v>5</v>
+      </c>
+      <c r="AR18">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>4</v>
+      </c>
+      <c r="AT18">
+        <v>4</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>5</v>
+      </c>
+      <c r="AY18">
+        <v>4</v>
+      </c>
+      <c r="AZ18">
+        <v>5</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>4</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>2</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>4</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>3</v>
+      </c>
+      <c r="BJ18">
+        <v>4</v>
+      </c>
+      <c r="BK18">
+        <v>5</v>
+      </c>
+      <c r="BL18">
+        <v>3</v>
+      </c>
+      <c r="BM18">
+        <v>4</v>
+      </c>
+      <c r="BN18">
+        <v>3</v>
+      </c>
+      <c r="BO18">
+        <v>3</v>
+      </c>
+      <c r="BP18">
+        <v>4</v>
+      </c>
+      <c r="BQ18">
+        <v>4</v>
+      </c>
+      <c r="BR18">
+        <v>4</v>
+      </c>
+      <c r="BS18">
+        <v>4</v>
+      </c>
+      <c r="BT18">
+        <v>3</v>
+      </c>
+      <c r="BU18">
+        <v>3</v>
+      </c>
+      <c r="BV18">
+        <v>3</v>
+      </c>
+      <c r="BW18">
+        <v>4</v>
+      </c>
+      <c r="BX18">
+        <v>3</v>
+      </c>
+      <c r="BY18">
+        <v>4</v>
+      </c>
+      <c r="BZ18">
+        <v>2</v>
+      </c>
+      <c r="CA18">
+        <v>2</v>
+      </c>
+      <c r="CB18">
+        <v>2</v>
+      </c>
+      <c r="CC18">
+        <v>4</v>
+      </c>
+      <c r="CD18">
+        <v>4</v>
+      </c>
+      <c r="CE18">
+        <v>2</v>
+      </c>
+      <c r="CF18">
+        <v>4</v>
+      </c>
+      <c r="CG18">
+        <v>4</v>
+      </c>
+      <c r="CH18">
+        <v>3</v>
+      </c>
+      <c r="CI18">
+        <v>4</v>
+      </c>
+      <c r="CJ18">
+        <v>3</v>
+      </c>
+      <c r="CK18">
+        <v>3</v>
+      </c>
+      <c r="CL18">
+        <v>3</v>
+      </c>
+      <c r="CM18">
+        <v>3</v>
+      </c>
+      <c r="CN18">
+        <v>3</v>
+      </c>
+      <c r="CO18">
+        <v>3</v>
+      </c>
+      <c r="CP18">
+        <v>3</v>
+      </c>
+      <c r="CQ18">
+        <v>3</v>
+      </c>
+      <c r="CR18">
+        <v>3</v>
+      </c>
+      <c r="CS18">
+        <v>3</v>
+      </c>
+      <c r="CT18">
+        <v>3</v>
+      </c>
+      <c r="CU18">
+        <v>4</v>
+      </c>
+      <c r="CV18">
+        <v>2</v>
+      </c>
+      <c r="CW18">
+        <v>4</v>
+      </c>
+      <c r="CX18">
+        <v>2</v>
+      </c>
+      <c r="CY18">
+        <v>2</v>
+      </c>
+      <c r="CZ18">
+        <v>4</v>
+      </c>
+      <c r="DA18">
+        <v>3</v>
+      </c>
+      <c r="DB18">
+        <v>3</v>
+      </c>
+      <c r="DC18">
+        <v>3</v>
+      </c>
+      <c r="DD18">
+        <v>4</v>
+      </c>
+      <c r="DE18">
+        <v>3</v>
+      </c>
+      <c r="DF18">
+        <v>4</v>
+      </c>
+      <c r="DG18">
+        <v>3</v>
+      </c>
+      <c r="DH18">
+        <v>3</v>
+      </c>
+      <c r="DI18">
+        <v>4</v>
+      </c>
+      <c r="DJ18">
+        <v>4</v>
+      </c>
+      <c r="DK18">
+        <v>4</v>
+      </c>
+      <c r="DL18">
+        <v>3</v>
+      </c>
+      <c r="DM18">
+        <v>3</v>
+      </c>
+      <c r="DN18">
+        <v>3</v>
+      </c>
+      <c r="DO18">
+        <v>4</v>
+      </c>
+      <c r="DP18">
+        <v>4</v>
+      </c>
+      <c r="DQ18">
+        <v>3</v>
+      </c>
+      <c r="DR18">
+        <v>4</v>
+      </c>
+      <c r="DS18">
+        <v>2</v>
+      </c>
+      <c r="DT18">
+        <v>4</v>
+      </c>
+      <c r="DU18">
+        <v>2</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW18">
+        <v>25</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>159</v>
+      </c>
+      <c r="EB18">
+        <v>1315.92</v>
+      </c>
+      <c r="EC18">
+        <v>308.57</v>
+      </c>
+      <c r="EF18">
+        <v>197.68</v>
+      </c>
+      <c r="EH18">
+        <v>213.06</v>
+      </c>
+      <c r="EJ18">
+        <v>227.83</v>
+      </c>
+      <c r="EL18">
+        <v>121.06</v>
+      </c>
+      <c r="EN18">
+        <v>203.94</v>
+      </c>
+      <c r="EP18">
+        <v>43.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19">
+        <v>144452071</v>
+      </c>
+      <c r="F19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>3</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>4</v>
+      </c>
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>5</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>5</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>4</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>4</v>
+      </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>2</v>
+      </c>
+      <c r="BD19">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>2</v>
+      </c>
+      <c r="BJ19">
+        <v>4</v>
+      </c>
+      <c r="BK19">
+        <v>4</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>5</v>
+      </c>
+      <c r="BN19">
+        <v>4</v>
+      </c>
+      <c r="BO19">
+        <v>2</v>
+      </c>
+      <c r="BP19">
+        <v>3</v>
+      </c>
+      <c r="BQ19">
+        <v>2</v>
+      </c>
+      <c r="BR19">
+        <v>2</v>
+      </c>
+      <c r="BS19">
+        <v>3</v>
+      </c>
+      <c r="BT19">
+        <v>2</v>
+      </c>
+      <c r="BU19">
+        <v>2</v>
+      </c>
+      <c r="BV19">
+        <v>1</v>
+      </c>
+      <c r="BW19">
+        <v>2</v>
+      </c>
+      <c r="BX19">
+        <v>2</v>
+      </c>
+      <c r="BY19">
+        <v>3</v>
+      </c>
+      <c r="BZ19">
+        <v>5</v>
+      </c>
+      <c r="CA19">
+        <v>5</v>
+      </c>
+      <c r="CB19">
+        <v>1</v>
+      </c>
+      <c r="CC19">
+        <v>3</v>
+      </c>
+      <c r="CD19">
+        <v>2</v>
+      </c>
+      <c r="CE19">
+        <v>1</v>
+      </c>
+      <c r="CF19">
+        <v>2</v>
+      </c>
+      <c r="CG19">
+        <v>4</v>
+      </c>
+      <c r="CH19">
+        <v>3</v>
+      </c>
+      <c r="CI19">
+        <v>2</v>
+      </c>
+      <c r="CJ19">
+        <v>2</v>
+      </c>
+      <c r="CK19">
+        <v>2</v>
+      </c>
+      <c r="CL19">
+        <v>3</v>
+      </c>
+      <c r="CM19">
+        <v>4</v>
+      </c>
+      <c r="CN19">
+        <v>3</v>
+      </c>
+      <c r="CO19">
+        <v>2</v>
+      </c>
+      <c r="CP19">
+        <v>4</v>
+      </c>
+      <c r="CQ19">
+        <v>2</v>
+      </c>
+      <c r="CR19">
+        <v>2</v>
+      </c>
+      <c r="CS19">
+        <v>3</v>
+      </c>
+      <c r="CT19">
+        <v>2</v>
+      </c>
+      <c r="CU19">
+        <v>3</v>
+      </c>
+      <c r="CV19">
+        <v>3</v>
+      </c>
+      <c r="CW19">
+        <v>4</v>
+      </c>
+      <c r="CX19">
+        <v>4</v>
+      </c>
+      <c r="CY19">
+        <v>2</v>
+      </c>
+      <c r="CZ19">
+        <v>3</v>
+      </c>
+      <c r="DA19">
+        <v>2</v>
+      </c>
+      <c r="DB19">
+        <v>2</v>
+      </c>
+      <c r="DC19">
+        <v>2</v>
+      </c>
+      <c r="DD19">
+        <v>4</v>
+      </c>
+      <c r="DE19">
+        <v>2</v>
+      </c>
+      <c r="DF19">
+        <v>3</v>
+      </c>
+      <c r="DG19">
+        <v>1</v>
+      </c>
+      <c r="DH19">
+        <v>1</v>
+      </c>
+      <c r="DI19">
+        <v>4</v>
+      </c>
+      <c r="DJ19">
+        <v>4</v>
+      </c>
+      <c r="DK19">
+        <v>4</v>
+      </c>
+      <c r="DL19">
+        <v>2</v>
+      </c>
+      <c r="DM19">
+        <v>4</v>
+      </c>
+      <c r="DN19">
+        <v>1</v>
+      </c>
+      <c r="DO19">
+        <v>1</v>
+      </c>
+      <c r="DP19">
+        <v>2</v>
+      </c>
+      <c r="DQ19">
+        <v>1</v>
+      </c>
+      <c r="DR19">
+        <v>3</v>
+      </c>
+      <c r="DS19">
+        <v>1</v>
+      </c>
+      <c r="DT19">
+        <v>1</v>
+      </c>
+      <c r="DU19">
+        <v>1</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW19">
+        <v>24</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB19">
+        <v>554.34</v>
+      </c>
+      <c r="EC19">
+        <v>60.66</v>
+      </c>
+      <c r="EF19">
+        <v>93.29</v>
+      </c>
+      <c r="EH19">
+        <v>153.74</v>
+      </c>
+      <c r="EJ19">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="EL19">
+        <v>82.34</v>
+      </c>
+      <c r="EN19">
+        <v>65.77</v>
+      </c>
+      <c r="EP19">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>886389940</v>
+      </c>
+      <c r="F20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>5</v>
+      </c>
+      <c r="AI20">
+        <v>5</v>
+      </c>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>5</v>
+      </c>
+      <c r="AL20">
+        <v>5</v>
+      </c>
+      <c r="AM20">
+        <v>5</v>
+      </c>
+      <c r="AN20">
+        <v>5</v>
+      </c>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>4</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>4</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>3</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>3</v>
+      </c>
+      <c r="AZ20">
+        <v>4</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>3</v>
+      </c>
+      <c r="BD20">
+        <v>3</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>2</v>
+      </c>
+      <c r="BJ20">
+        <v>3</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>4</v>
+      </c>
+      <c r="BN20">
+        <v>2</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>2</v>
+      </c>
+      <c r="BQ20">
+        <v>2</v>
+      </c>
+      <c r="BR20">
+        <v>2</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>3</v>
+      </c>
+      <c r="BU20">
+        <v>4</v>
+      </c>
+      <c r="BV20">
+        <v>1</v>
+      </c>
+      <c r="BW20">
+        <v>3</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>3</v>
+      </c>
+      <c r="BZ20">
+        <v>3</v>
+      </c>
+      <c r="CA20">
+        <v>1</v>
+      </c>
+      <c r="CB20">
+        <v>4</v>
+      </c>
+      <c r="CC20">
+        <v>4</v>
+      </c>
+      <c r="CD20">
+        <v>3</v>
+      </c>
+      <c r="CE20">
+        <v>2</v>
+      </c>
+      <c r="CF20">
+        <v>4</v>
+      </c>
+      <c r="CG20">
+        <v>4</v>
+      </c>
+      <c r="CH20">
+        <v>4</v>
+      </c>
+      <c r="CI20">
+        <v>4</v>
+      </c>
+      <c r="CJ20">
+        <v>1</v>
+      </c>
+      <c r="CK20">
+        <v>3</v>
+      </c>
+      <c r="CL20">
+        <v>3</v>
+      </c>
+      <c r="CM20">
+        <v>2</v>
+      </c>
+      <c r="CN20">
+        <v>1</v>
+      </c>
+      <c r="CO20">
+        <v>3</v>
+      </c>
+      <c r="CP20">
+        <v>4</v>
+      </c>
+      <c r="CQ20">
+        <v>3</v>
+      </c>
+      <c r="CR20">
+        <v>4</v>
+      </c>
+      <c r="CS20">
+        <v>3</v>
+      </c>
+      <c r="CT20">
+        <v>4</v>
+      </c>
+      <c r="CU20">
+        <v>3</v>
+      </c>
+      <c r="CV20">
+        <v>3</v>
+      </c>
+      <c r="CW20">
+        <v>3</v>
+      </c>
+      <c r="CX20">
+        <v>3</v>
+      </c>
+      <c r="CY20">
+        <v>2</v>
+      </c>
+      <c r="CZ20">
+        <v>4</v>
+      </c>
+      <c r="DA20">
+        <v>4</v>
+      </c>
+      <c r="DB20">
+        <v>2</v>
+      </c>
+      <c r="DC20">
+        <v>3</v>
+      </c>
+      <c r="DD20">
+        <v>3</v>
+      </c>
+      <c r="DE20">
+        <v>4</v>
+      </c>
+      <c r="DF20">
+        <v>2</v>
+      </c>
+      <c r="DG20">
+        <v>5</v>
+      </c>
+      <c r="DH20">
+        <v>5</v>
+      </c>
+      <c r="DI20">
+        <v>5</v>
+      </c>
+      <c r="DJ20">
+        <v>5</v>
+      </c>
+      <c r="DK20">
+        <v>5</v>
+      </c>
+      <c r="DL20">
+        <v>5</v>
+      </c>
+      <c r="DM20">
+        <v>5</v>
+      </c>
+      <c r="DN20">
+        <v>5</v>
+      </c>
+      <c r="DO20">
+        <v>4</v>
+      </c>
+      <c r="DP20">
+        <v>4</v>
+      </c>
+      <c r="DQ20">
+        <v>4</v>
+      </c>
+      <c r="DR20">
+        <v>5</v>
+      </c>
+      <c r="DS20">
+        <v>5</v>
+      </c>
+      <c r="DT20">
+        <v>1</v>
+      </c>
+      <c r="DU20">
+        <v>1</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW20">
+        <v>26</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>159</v>
+      </c>
+      <c r="EB20">
+        <v>570.65</v>
+      </c>
+      <c r="EC20">
+        <v>98.35</v>
+      </c>
+      <c r="EF20">
+        <v>87.42</v>
+      </c>
+      <c r="EH20">
+        <v>77.7</v>
+      </c>
+      <c r="EJ20">
+        <v>111.77</v>
+      </c>
+      <c r="EL20">
+        <v>86.91</v>
+      </c>
+      <c r="EN20">
+        <v>83.9</v>
+      </c>
+      <c r="EP20">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>800414532</v>
+      </c>
+      <c r="F21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" t="s">
+        <v>212</v>
+      </c>
+      <c r="I21" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <v>5</v>
+      </c>
+      <c r="AM21">
+        <v>4</v>
+      </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <v>4</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>5</v>
+      </c>
+      <c r="AT21">
+        <v>5</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
+        <v>5</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>3</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>3</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>2</v>
+      </c>
+      <c r="BM21">
+        <v>4</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>3</v>
+      </c>
+      <c r="BP21">
+        <v>3</v>
+      </c>
+      <c r="BQ21">
+        <v>4</v>
+      </c>
+      <c r="BR21">
+        <v>4</v>
+      </c>
+      <c r="BS21">
+        <v>4</v>
+      </c>
+      <c r="BT21">
+        <v>3</v>
+      </c>
+      <c r="BU21">
+        <v>3</v>
+      </c>
+      <c r="BV21">
+        <v>3</v>
+      </c>
+      <c r="BW21">
+        <v>3</v>
+      </c>
+      <c r="BX21">
+        <v>3</v>
+      </c>
+      <c r="BY21">
+        <v>5</v>
+      </c>
+      <c r="BZ21">
+        <v>3</v>
+      </c>
+      <c r="CA21">
+        <v>1</v>
+      </c>
+      <c r="CB21">
+        <v>2</v>
+      </c>
+      <c r="CC21">
+        <v>2</v>
+      </c>
+      <c r="CD21">
+        <v>3</v>
+      </c>
+      <c r="CE21">
+        <v>2</v>
+      </c>
+      <c r="CF21">
+        <v>3</v>
+      </c>
+      <c r="CG21">
+        <v>3</v>
+      </c>
+      <c r="CH21">
+        <v>2</v>
+      </c>
+      <c r="CI21">
+        <v>3</v>
+      </c>
+      <c r="CJ21">
+        <v>3</v>
+      </c>
+      <c r="CK21">
+        <v>2</v>
+      </c>
+      <c r="CL21">
+        <v>3</v>
+      </c>
+      <c r="CM21">
+        <v>4</v>
+      </c>
+      <c r="CN21">
+        <v>4</v>
+      </c>
+      <c r="CO21">
+        <v>2</v>
+      </c>
+      <c r="CP21">
+        <v>4</v>
+      </c>
+      <c r="CQ21">
+        <v>4</v>
+      </c>
+      <c r="CR21">
+        <v>4</v>
+      </c>
+      <c r="CS21">
+        <v>4</v>
+      </c>
+      <c r="CT21">
+        <v>4</v>
+      </c>
+      <c r="CU21">
+        <v>4</v>
+      </c>
+      <c r="CV21">
+        <v>2</v>
+      </c>
+      <c r="CW21">
+        <v>3</v>
+      </c>
+      <c r="CX21">
+        <v>2</v>
+      </c>
+      <c r="CY21">
+        <v>1</v>
+      </c>
+      <c r="CZ21">
+        <v>3</v>
+      </c>
+      <c r="DA21">
+        <v>3</v>
+      </c>
+      <c r="DB21">
+        <v>1</v>
+      </c>
+      <c r="DC21">
+        <v>2</v>
+      </c>
+      <c r="DD21">
+        <v>1</v>
+      </c>
+      <c r="DE21">
+        <v>1</v>
+      </c>
+      <c r="DF21">
+        <v>2</v>
+      </c>
+      <c r="DG21">
+        <v>4</v>
+      </c>
+      <c r="DH21">
+        <v>1</v>
+      </c>
+      <c r="DI21">
+        <v>3</v>
+      </c>
+      <c r="DJ21">
+        <v>3</v>
+      </c>
+      <c r="DK21">
+        <v>3</v>
+      </c>
+      <c r="DL21">
+        <v>3</v>
+      </c>
+      <c r="DM21">
+        <v>3</v>
+      </c>
+      <c r="DN21">
+        <v>4</v>
+      </c>
+      <c r="DO21">
+        <v>4</v>
+      </c>
+      <c r="DP21">
+        <v>4</v>
+      </c>
+      <c r="DQ21">
+        <v>4</v>
+      </c>
+      <c r="DR21">
+        <v>4</v>
+      </c>
+      <c r="DS21">
+        <v>1</v>
+      </c>
+      <c r="DT21">
+        <v>5</v>
+      </c>
+      <c r="DU21">
+        <v>1</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW21">
+        <v>21</v>
+      </c>
+      <c r="DX21" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB21">
+        <v>336.9</v>
+      </c>
+      <c r="EC21">
+        <v>12.97</v>
+      </c>
+      <c r="EF21">
+        <v>76.95</v>
+      </c>
+      <c r="EH21">
+        <v>54.5</v>
+      </c>
+      <c r="EJ21">
+        <v>60.06</v>
+      </c>
+      <c r="EL21">
+        <v>60.49</v>
+      </c>
+      <c r="EN21">
+        <v>55.53</v>
+      </c>
+      <c r="EP21">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <v>1147066746</v>
+      </c>
+      <c r="F22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>3</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>3</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>3</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>3</v>
+      </c>
+      <c r="AY22">
+        <v>3</v>
+      </c>
+      <c r="AZ22">
+        <v>3</v>
+      </c>
+      <c r="BA22">
+        <v>3</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>2</v>
+      </c>
+      <c r="BD22">
+        <v>2</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22">
+        <v>1</v>
+      </c>
+      <c r="BI22">
+        <v>1</v>
+      </c>
+      <c r="BJ22">
+        <v>2</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BM22">
+        <v>2</v>
+      </c>
+      <c r="BN22">
+        <v>2</v>
+      </c>
+      <c r="BO22">
+        <v>3</v>
+      </c>
+      <c r="BP22">
+        <v>2</v>
+      </c>
+      <c r="BQ22">
+        <v>3</v>
+      </c>
+      <c r="BR22">
+        <v>3</v>
+      </c>
+      <c r="BS22">
+        <v>3</v>
+      </c>
+      <c r="BT22">
+        <v>2</v>
+      </c>
+      <c r="BU22">
+        <v>1</v>
+      </c>
+      <c r="BV22">
+        <v>2</v>
+      </c>
+      <c r="BW22">
+        <v>2</v>
+      </c>
+      <c r="BX22">
+        <v>3</v>
+      </c>
+      <c r="BY22">
+        <v>3</v>
+      </c>
+      <c r="BZ22">
+        <v>2</v>
+      </c>
+      <c r="CA22">
+        <v>2</v>
+      </c>
+      <c r="CB22">
+        <v>1</v>
+      </c>
+      <c r="CC22">
+        <v>1</v>
+      </c>
+      <c r="CD22">
+        <v>2</v>
+      </c>
+      <c r="CE22">
+        <v>1</v>
+      </c>
+      <c r="CF22">
+        <v>1</v>
+      </c>
+      <c r="CG22">
+        <v>2</v>
+      </c>
+      <c r="CH22">
+        <v>2</v>
+      </c>
+      <c r="CI22">
+        <v>1</v>
+      </c>
+      <c r="CJ22">
+        <v>1</v>
+      </c>
+      <c r="CK22">
+        <v>2</v>
+      </c>
+      <c r="CL22">
+        <v>2</v>
+      </c>
+      <c r="CM22">
+        <v>2</v>
+      </c>
+      <c r="CN22">
+        <v>2</v>
+      </c>
+      <c r="CO22">
+        <v>3</v>
+      </c>
+      <c r="CP22">
+        <v>3</v>
+      </c>
+      <c r="CQ22">
+        <v>3</v>
+      </c>
+      <c r="CR22">
+        <v>3</v>
+      </c>
+      <c r="CS22">
+        <v>3</v>
+      </c>
+      <c r="CT22">
+        <v>3</v>
+      </c>
+      <c r="CU22">
+        <v>2</v>
+      </c>
+      <c r="CV22">
+        <v>2</v>
+      </c>
+      <c r="CW22">
+        <v>2</v>
+      </c>
+      <c r="CX22">
+        <v>2</v>
+      </c>
+      <c r="CY22">
+        <v>1</v>
+      </c>
+      <c r="CZ22">
+        <v>1</v>
+      </c>
+      <c r="DA22">
+        <v>1</v>
+      </c>
+      <c r="DB22">
+        <v>1</v>
+      </c>
+      <c r="DC22">
+        <v>1</v>
+      </c>
+      <c r="DD22">
+        <v>2</v>
+      </c>
+      <c r="DE22">
+        <v>2</v>
+      </c>
+      <c r="DF22">
+        <v>1</v>
+      </c>
+      <c r="DG22">
+        <v>1</v>
+      </c>
+      <c r="DH22">
+        <v>1</v>
+      </c>
+      <c r="DI22">
+        <v>3</v>
+      </c>
+      <c r="DJ22">
+        <v>3</v>
+      </c>
+      <c r="DK22">
+        <v>3</v>
+      </c>
+      <c r="DL22">
+        <v>3</v>
+      </c>
+      <c r="DM22">
+        <v>3</v>
+      </c>
+      <c r="DN22">
+        <v>3</v>
+      </c>
+      <c r="DO22">
+        <v>3</v>
+      </c>
+      <c r="DP22">
+        <v>2</v>
+      </c>
+      <c r="DQ22">
+        <v>2</v>
+      </c>
+      <c r="DR22">
+        <v>3</v>
+      </c>
+      <c r="DS22">
+        <v>3</v>
+      </c>
+      <c r="DT22">
+        <v>2</v>
+      </c>
+      <c r="DU22">
+        <v>1</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>185</v>
+      </c>
+      <c r="DW22">
+        <v>21</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB22">
+        <v>505.23</v>
+      </c>
+      <c r="EC22">
+        <v>14.71</v>
+      </c>
+      <c r="EF22">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="EH22">
+        <v>106.19</v>
+      </c>
+      <c r="EJ22">
+        <v>54.4</v>
+      </c>
+      <c r="EL22">
+        <v>200.87</v>
+      </c>
+      <c r="EN22">
+        <v>45.8</v>
+      </c>
+      <c r="EP22">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>796787463</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
+      <c r="AD23">
+        <v>4</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AH23">
+        <v>4</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>4</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+      <c r="AM23">
+        <v>3</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>4</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>4</v>
+      </c>
+      <c r="AS23">
+        <v>3</v>
+      </c>
+      <c r="AT23">
+        <v>4</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>4</v>
+      </c>
+      <c r="AZ23">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>4</v>
+      </c>
+      <c r="BD23">
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <v>2</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>3</v>
+      </c>
+      <c r="BJ23">
+        <v>2</v>
+      </c>
+      <c r="BK23">
+        <v>3</v>
+      </c>
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>5</v>
+      </c>
+      <c r="BN23">
+        <v>2</v>
+      </c>
+      <c r="BO23">
+        <v>2</v>
+      </c>
+      <c r="BP23">
+        <v>2</v>
+      </c>
+      <c r="BQ23">
+        <v>3</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
+        <v>1</v>
+      </c>
+      <c r="BT23">
+        <v>4</v>
+      </c>
+      <c r="BU23">
+        <v>3</v>
+      </c>
+      <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <v>5</v>
+      </c>
+      <c r="BX23">
+        <v>2</v>
+      </c>
+      <c r="BY23">
+        <v>4</v>
+      </c>
+      <c r="BZ23">
+        <v>4</v>
+      </c>
+      <c r="CA23">
+        <v>3</v>
+      </c>
+      <c r="CB23">
+        <v>5</v>
+      </c>
+      <c r="CC23">
+        <v>4</v>
+      </c>
+      <c r="CD23">
+        <v>3</v>
+      </c>
+      <c r="CE23">
+        <v>4</v>
+      </c>
+      <c r="CF23">
+        <v>4</v>
+      </c>
+      <c r="CG23">
+        <v>5</v>
+      </c>
+      <c r="CH23">
+        <v>5</v>
+      </c>
+      <c r="CI23">
+        <v>4</v>
+      </c>
+      <c r="CJ23">
+        <v>5</v>
+      </c>
+      <c r="CK23">
+        <v>5</v>
+      </c>
+      <c r="CL23">
+        <v>4</v>
+      </c>
+      <c r="CM23">
+        <v>4</v>
+      </c>
+      <c r="CN23">
+        <v>4</v>
+      </c>
+      <c r="CO23">
+        <v>4</v>
+      </c>
+      <c r="CP23">
+        <v>4</v>
+      </c>
+      <c r="CQ23">
+        <v>3</v>
+      </c>
+      <c r="CR23">
+        <v>3</v>
+      </c>
+      <c r="CS23">
+        <v>3</v>
+      </c>
+      <c r="CT23">
+        <v>4</v>
+      </c>
+      <c r="CU23">
+        <v>3</v>
+      </c>
+      <c r="CV23">
+        <v>3</v>
+      </c>
+      <c r="CW23">
+        <v>4</v>
+      </c>
+      <c r="CX23">
+        <v>4</v>
+      </c>
+      <c r="CY23">
+        <v>2</v>
+      </c>
+      <c r="CZ23">
+        <v>2</v>
+      </c>
+      <c r="DA23">
+        <v>4</v>
+      </c>
+      <c r="DB23">
+        <v>3</v>
+      </c>
+      <c r="DC23">
+        <v>5</v>
+      </c>
+      <c r="DD23">
+        <v>3</v>
+      </c>
+      <c r="DE23">
+        <v>2</v>
+      </c>
+      <c r="DF23">
+        <v>3</v>
+      </c>
+      <c r="DG23">
+        <v>3</v>
+      </c>
+      <c r="DH23">
+        <v>3</v>
+      </c>
+      <c r="DI23">
+        <v>4</v>
+      </c>
+      <c r="DJ23">
+        <v>3</v>
+      </c>
+      <c r="DK23">
+        <v>4</v>
+      </c>
+      <c r="DL23">
+        <v>4</v>
+      </c>
+      <c r="DM23">
+        <v>4</v>
+      </c>
+      <c r="DN23">
+        <v>4</v>
+      </c>
+      <c r="DO23">
+        <v>4</v>
+      </c>
+      <c r="DP23">
+        <v>5</v>
+      </c>
+      <c r="DQ23">
+        <v>5</v>
+      </c>
+      <c r="DR23">
+        <v>4</v>
+      </c>
+      <c r="DS23">
+        <v>4</v>
+      </c>
+      <c r="DT23">
+        <v>2</v>
+      </c>
+      <c r="DU23">
+        <v>2</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>185</v>
+      </c>
+      <c r="DW23">
+        <v>21</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>158</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB23">
+        <v>563.61</v>
+      </c>
+      <c r="EC23">
+        <v>36.99</v>
+      </c>
+      <c r="EF23">
+        <v>105.47</v>
+      </c>
+      <c r="EH23">
+        <v>89.09</v>
+      </c>
+      <c r="EJ23">
+        <v>83.94</v>
+      </c>
+      <c r="EL23">
+        <v>102.14</v>
+      </c>
+      <c r="EN23">
+        <v>128.15</v>
+      </c>
+      <c r="EP23">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <v>1769372023</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
+        <v>5</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>4</v>
+      </c>
+      <c r="AM24">
+        <v>5</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24">
+        <v>5</v>
+      </c>
+      <c r="AP24">
+        <v>4</v>
+      </c>
+      <c r="AQ24">
+        <v>4</v>
+      </c>
+      <c r="AR24">
+        <v>5</v>
+      </c>
+      <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
+        <v>4</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>4</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>2</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>2</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>3</v>
+      </c>
+      <c r="BJ24">
+        <v>3</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24">
+        <v>3</v>
+      </c>
+      <c r="BN24">
+        <v>3</v>
+      </c>
+      <c r="BO24">
+        <v>3</v>
+      </c>
+      <c r="BP24">
+        <v>3</v>
+      </c>
+      <c r="BQ24">
+        <v>3</v>
+      </c>
+      <c r="BR24">
+        <v>3</v>
+      </c>
+      <c r="BS24">
+        <v>3</v>
+      </c>
+      <c r="BT24">
+        <v>3</v>
+      </c>
+      <c r="BU24">
+        <v>3</v>
+      </c>
+      <c r="BV24">
+        <v>3</v>
+      </c>
+      <c r="BW24">
+        <v>3</v>
+      </c>
+      <c r="BX24">
+        <v>3</v>
+      </c>
+      <c r="BY24">
+        <v>3</v>
+      </c>
+      <c r="BZ24">
+        <v>3</v>
+      </c>
+      <c r="CA24">
+        <v>2</v>
+      </c>
+      <c r="CB24">
+        <v>4</v>
+      </c>
+      <c r="CC24">
+        <v>2</v>
+      </c>
+      <c r="CD24">
+        <v>5</v>
+      </c>
+      <c r="CE24">
+        <v>4</v>
+      </c>
+      <c r="CF24">
+        <v>3</v>
+      </c>
+      <c r="CG24">
+        <v>4</v>
+      </c>
+      <c r="CH24">
+        <v>4</v>
+      </c>
+      <c r="CI24">
+        <v>4</v>
+      </c>
+      <c r="CJ24">
+        <v>4</v>
+      </c>
+      <c r="CK24">
+        <v>4</v>
+      </c>
+      <c r="CL24">
+        <v>4</v>
+      </c>
+      <c r="CM24">
+        <v>4</v>
+      </c>
+      <c r="CN24">
+        <v>4</v>
+      </c>
+      <c r="CO24">
+        <v>4</v>
+      </c>
+      <c r="CP24">
+        <v>4</v>
+      </c>
+      <c r="CQ24">
+        <v>4</v>
+      </c>
+      <c r="CR24">
+        <v>4</v>
+      </c>
+      <c r="CS24">
+        <v>4</v>
+      </c>
+      <c r="CT24">
+        <v>4</v>
+      </c>
+      <c r="CU24">
+        <v>3</v>
+      </c>
+      <c r="CV24">
+        <v>2</v>
+      </c>
+      <c r="CW24">
+        <v>4</v>
+      </c>
+      <c r="CX24">
+        <v>2</v>
+      </c>
+      <c r="CY24">
+        <v>2</v>
+      </c>
+      <c r="CZ24">
+        <v>2</v>
+      </c>
+      <c r="DA24">
+        <v>4</v>
+      </c>
+      <c r="DB24">
+        <v>2</v>
+      </c>
+      <c r="DC24">
+        <v>3</v>
+      </c>
+      <c r="DD24">
+        <v>4</v>
+      </c>
+      <c r="DE24">
+        <v>4</v>
+      </c>
+      <c r="DF24">
+        <v>3</v>
+      </c>
+      <c r="DG24">
+        <v>4</v>
+      </c>
+      <c r="DH24">
+        <v>4</v>
+      </c>
+      <c r="DI24">
+        <v>2</v>
+      </c>
+      <c r="DJ24">
+        <v>4</v>
+      </c>
+      <c r="DK24">
+        <v>4</v>
+      </c>
+      <c r="DL24">
+        <v>3</v>
+      </c>
+      <c r="DM24">
+        <v>3</v>
+      </c>
+      <c r="DN24">
+        <v>3</v>
+      </c>
+      <c r="DO24">
+        <v>3</v>
+      </c>
+      <c r="DP24">
+        <v>3</v>
+      </c>
+      <c r="DQ24">
+        <v>3</v>
+      </c>
+      <c r="DR24">
+        <v>4</v>
+      </c>
+      <c r="DS24">
+        <v>2</v>
+      </c>
+      <c r="DT24">
+        <v>4</v>
+      </c>
+      <c r="DU24">
+        <v>2</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW24">
+        <v>40</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB24">
+        <v>615.21</v>
+      </c>
+      <c r="EC24">
+        <v>57.03</v>
+      </c>
+      <c r="EF24">
+        <v>109.57</v>
+      </c>
+      <c r="EH24">
+        <v>166.36</v>
+      </c>
+      <c r="EJ24">
+        <v>88.33</v>
+      </c>
+      <c r="EL24">
+        <v>78.75</v>
+      </c>
+      <c r="EN24">
+        <v>89.98</v>
+      </c>
+      <c r="EP24">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25">
+        <v>472266919</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>4</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>4</v>
+      </c>
+      <c r="AP25">
+        <v>4</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>5</v>
+      </c>
+      <c r="AT25">
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>5</v>
+      </c>
+      <c r="AY25">
+        <v>4</v>
+      </c>
+      <c r="AZ25">
+        <v>5</v>
+      </c>
+      <c r="BA25">
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BD25">
+        <v>2</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>2</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <v>5</v>
+      </c>
+      <c r="BJ25">
+        <v>2</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>2</v>
+      </c>
+      <c r="BM25">
+        <v>3</v>
+      </c>
+      <c r="BN25">
+        <v>4</v>
+      </c>
+      <c r="BO25">
+        <v>3</v>
+      </c>
+      <c r="BP25">
+        <v>4</v>
+      </c>
+      <c r="BQ25">
+        <v>4</v>
+      </c>
+      <c r="BR25">
+        <v>3</v>
+      </c>
+      <c r="BS25">
+        <v>4</v>
+      </c>
+      <c r="BT25">
+        <v>2</v>
+      </c>
+      <c r="BU25">
+        <v>2</v>
+      </c>
+      <c r="BV25">
+        <v>3</v>
+      </c>
+      <c r="BW25">
+        <v>2</v>
+      </c>
+      <c r="BX25">
+        <v>2</v>
+      </c>
+      <c r="BY25">
+        <v>4</v>
+      </c>
+      <c r="BZ25">
+        <v>2</v>
+      </c>
+      <c r="CA25">
+        <v>2</v>
+      </c>
+      <c r="CB25">
+        <v>1</v>
+      </c>
+      <c r="CC25">
+        <v>2</v>
+      </c>
+      <c r="CD25">
+        <v>1</v>
+      </c>
+      <c r="CE25">
+        <v>3</v>
+      </c>
+      <c r="CF25">
+        <v>3</v>
+      </c>
+      <c r="CG25">
+        <v>1</v>
+      </c>
+      <c r="CH25">
+        <v>1</v>
+      </c>
+      <c r="CI25">
+        <v>2</v>
+      </c>
+      <c r="CJ25">
+        <v>3</v>
+      </c>
+      <c r="CK25">
+        <v>2</v>
+      </c>
+      <c r="CL25">
+        <v>2</v>
+      </c>
+      <c r="CM25">
+        <v>3</v>
+      </c>
+      <c r="CN25">
+        <v>4</v>
+      </c>
+      <c r="CO25">
+        <v>3</v>
+      </c>
+      <c r="CP25">
+        <v>2</v>
+      </c>
+      <c r="CQ25">
+        <v>4</v>
+      </c>
+      <c r="CR25">
+        <v>3</v>
+      </c>
+      <c r="CS25">
+        <v>3</v>
+      </c>
+      <c r="CT25">
+        <v>3</v>
+      </c>
+      <c r="CU25">
+        <v>2</v>
+      </c>
+      <c r="CV25">
+        <v>2</v>
+      </c>
+      <c r="CW25">
+        <v>2</v>
+      </c>
+      <c r="CX25">
+        <v>2</v>
+      </c>
+      <c r="CY25">
+        <v>1</v>
+      </c>
+      <c r="CZ25">
+        <v>1</v>
+      </c>
+      <c r="DA25">
+        <v>1</v>
+      </c>
+      <c r="DB25">
+        <v>3</v>
+      </c>
+      <c r="DC25">
+        <v>2</v>
+      </c>
+      <c r="DD25">
+        <v>1</v>
+      </c>
+      <c r="DE25">
+        <v>1</v>
+      </c>
+      <c r="DF25">
+        <v>2</v>
+      </c>
+      <c r="DG25">
+        <v>1</v>
+      </c>
+      <c r="DH25">
+        <v>2</v>
+      </c>
+      <c r="DI25">
+        <v>2</v>
+      </c>
+      <c r="DJ25">
+        <v>4</v>
+      </c>
+      <c r="DK25">
+        <v>3</v>
+      </c>
+      <c r="DL25">
+        <v>2</v>
+      </c>
+      <c r="DM25">
+        <v>3</v>
+      </c>
+      <c r="DN25">
+        <v>2</v>
+      </c>
+      <c r="DO25">
+        <v>2</v>
+      </c>
+      <c r="DP25">
+        <v>2</v>
+      </c>
+      <c r="DQ25">
+        <v>4</v>
+      </c>
+      <c r="DR25">
+        <v>3</v>
+      </c>
+      <c r="DS25">
+        <v>3</v>
+      </c>
+      <c r="DT25">
+        <v>1</v>
+      </c>
+      <c r="DU25">
+        <v>1</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW25">
+        <v>20</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB25">
+        <v>490.79</v>
+      </c>
+      <c r="EC25">
+        <v>43.74</v>
+      </c>
+      <c r="EF25">
+        <v>80.87</v>
+      </c>
+      <c r="EH25">
+        <v>112.52</v>
+      </c>
+      <c r="EJ25">
+        <v>97.79</v>
+      </c>
+      <c r="EL25">
+        <v>76.7</v>
+      </c>
+      <c r="EN25">
+        <v>59.48</v>
+      </c>
+      <c r="EP25">
+        <v>19.690000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26">
+        <v>100574985</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <v>2</v>
+      </c>
+      <c r="AG26">
+        <v>3</v>
+      </c>
+      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>5</v>
+      </c>
+      <c r="AK26">
+        <v>5</v>
+      </c>
+      <c r="AL26">
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <v>5</v>
+      </c>
+      <c r="AO26">
+        <v>4</v>
+      </c>
+      <c r="AP26">
+        <v>4</v>
+      </c>
+      <c r="AQ26">
+        <v>5</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <v>5</v>
+      </c>
+      <c r="AT26">
+        <v>5</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>4</v>
+      </c>
+      <c r="AZ26">
+        <v>4</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>2</v>
+      </c>
+      <c r="BD26">
+        <v>2</v>
+      </c>
+      <c r="BE26">
+        <v>2</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
+        <v>1</v>
+      </c>
+      <c r="BI26">
+        <v>2</v>
+      </c>
+      <c r="BJ26">
+        <v>3</v>
+      </c>
+      <c r="BK26">
+        <v>5</v>
+      </c>
+      <c r="BL26">
+        <v>2</v>
+      </c>
+      <c r="BM26">
+        <v>4</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26">
+        <v>3</v>
+      </c>
+      <c r="BP26">
+        <v>4</v>
+      </c>
+      <c r="BQ26">
+        <v>2</v>
+      </c>
+      <c r="BR26">
+        <v>4</v>
+      </c>
+      <c r="BS26">
+        <v>4</v>
+      </c>
+      <c r="BT26">
+        <v>2</v>
+      </c>
+      <c r="BU26">
+        <v>3</v>
+      </c>
+      <c r="BV26">
+        <v>2</v>
+      </c>
+      <c r="BW26">
+        <v>2</v>
+      </c>
+      <c r="BX26">
+        <v>4</v>
+      </c>
+      <c r="BY26">
+        <v>2</v>
+      </c>
+      <c r="BZ26">
+        <v>4</v>
+      </c>
+      <c r="CA26">
+        <v>4</v>
+      </c>
+      <c r="CB26">
+        <v>2</v>
+      </c>
+      <c r="CC26">
+        <v>2</v>
+      </c>
+      <c r="CD26">
+        <v>2</v>
+      </c>
+      <c r="CE26">
+        <v>2</v>
+      </c>
+      <c r="CF26">
+        <v>3</v>
+      </c>
+      <c r="CG26">
+        <v>2</v>
+      </c>
+      <c r="CH26">
+        <v>4</v>
+      </c>
+      <c r="CI26">
+        <v>2</v>
+      </c>
+      <c r="CJ26">
+        <v>2</v>
+      </c>
+      <c r="CK26">
+        <v>2</v>
+      </c>
+      <c r="CL26">
+        <v>2</v>
+      </c>
+      <c r="CM26">
+        <v>2</v>
+      </c>
+      <c r="CN26">
+        <v>4</v>
+      </c>
+      <c r="CO26">
+        <v>2</v>
+      </c>
+      <c r="CP26">
+        <v>2</v>
+      </c>
+      <c r="CQ26">
+        <v>2</v>
+      </c>
+      <c r="CR26">
+        <v>2</v>
+      </c>
+      <c r="CS26">
+        <v>3</v>
+      </c>
+      <c r="CT26">
+        <v>4</v>
+      </c>
+      <c r="CU26">
+        <v>2</v>
+      </c>
+      <c r="CV26">
+        <v>3</v>
+      </c>
+      <c r="CW26">
+        <v>4</v>
+      </c>
+      <c r="CX26">
+        <v>3</v>
+      </c>
+      <c r="CY26">
+        <v>1</v>
+      </c>
+      <c r="CZ26">
+        <v>2</v>
+      </c>
+      <c r="DA26">
+        <v>2</v>
+      </c>
+      <c r="DB26">
+        <v>1</v>
+      </c>
+      <c r="DC26">
+        <v>2</v>
+      </c>
+      <c r="DD26">
+        <v>1</v>
+      </c>
+      <c r="DE26">
+        <v>2</v>
+      </c>
+      <c r="DF26">
+        <v>2</v>
+      </c>
+      <c r="DG26">
+        <v>2</v>
+      </c>
+      <c r="DH26">
+        <v>2</v>
+      </c>
+      <c r="DI26">
+        <v>2</v>
+      </c>
+      <c r="DJ26">
+        <v>3</v>
+      </c>
+      <c r="DK26">
+        <v>3</v>
+      </c>
+      <c r="DL26">
+        <v>2</v>
+      </c>
+      <c r="DM26">
+        <v>2</v>
+      </c>
+      <c r="DN26">
+        <v>2</v>
+      </c>
+      <c r="DO26">
+        <v>2</v>
+      </c>
+      <c r="DP26">
+        <v>3</v>
+      </c>
+      <c r="DQ26">
+        <v>2</v>
+      </c>
+      <c r="DR26">
+        <v>3</v>
+      </c>
+      <c r="DS26">
+        <v>2</v>
+      </c>
+      <c r="DT26">
+        <v>4</v>
+      </c>
+      <c r="DU26">
+        <v>3</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW26">
+        <v>19</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB26">
+        <v>926.61</v>
+      </c>
+      <c r="EC26">
+        <v>143.9</v>
+      </c>
+      <c r="EF26">
+        <v>78.33</v>
+      </c>
+      <c r="EH26">
+        <v>96.82</v>
+      </c>
+      <c r="EJ26">
+        <v>429.17</v>
+      </c>
+      <c r="EL26">
+        <v>91.1</v>
+      </c>
+      <c r="EN26">
+        <v>52.61</v>
+      </c>
+      <c r="EP26">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27">
+        <v>931050139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>4</v>
+      </c>
+      <c r="AI27">
+        <v>2</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>4</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>4</v>
+      </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>5</v>
+      </c>
+      <c r="AY27">
+        <v>5</v>
+      </c>
+      <c r="AZ27">
+        <v>4</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>2</v>
+      </c>
+      <c r="BE27">
+        <v>2</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
+        <v>2</v>
+      </c>
+      <c r="BI27">
+        <v>3</v>
+      </c>
+      <c r="BJ27">
+        <v>4</v>
+      </c>
+      <c r="BK27">
+        <v>4</v>
+      </c>
+      <c r="BL27">
+        <v>3</v>
+      </c>
+      <c r="BM27">
+        <v>5</v>
+      </c>
+      <c r="BN27">
+        <v>4</v>
+      </c>
+      <c r="BO27">
+        <v>2</v>
+      </c>
+      <c r="BP27">
+        <v>2</v>
+      </c>
+      <c r="BQ27">
+        <v>3</v>
+      </c>
+      <c r="BR27">
+        <v>3</v>
+      </c>
+      <c r="BS27">
+        <v>3</v>
+      </c>
+      <c r="BT27">
+        <v>3</v>
+      </c>
+      <c r="BU27">
+        <v>2</v>
+      </c>
+      <c r="BV27">
+        <v>2</v>
+      </c>
+      <c r="BW27">
+        <v>2</v>
+      </c>
+      <c r="BX27">
+        <v>1</v>
+      </c>
+      <c r="BY27">
+        <v>3</v>
+      </c>
+      <c r="BZ27">
+        <v>4</v>
+      </c>
+      <c r="CA27">
+        <v>4</v>
+      </c>
+      <c r="CB27">
+        <v>1</v>
+      </c>
+      <c r="CC27">
+        <v>1</v>
+      </c>
+      <c r="CD27">
+        <v>4</v>
+      </c>
+      <c r="CE27">
+        <v>2</v>
+      </c>
+      <c r="CF27">
+        <v>2</v>
+      </c>
+      <c r="CG27">
+        <v>2</v>
+      </c>
+      <c r="CH27">
+        <v>2</v>
+      </c>
+      <c r="CI27">
+        <v>1</v>
+      </c>
+      <c r="CJ27">
+        <v>4</v>
+      </c>
+      <c r="CK27">
+        <v>1</v>
+      </c>
+      <c r="CL27">
+        <v>2</v>
+      </c>
+      <c r="CM27">
+        <v>2</v>
+      </c>
+      <c r="CN27">
+        <v>2</v>
+      </c>
+      <c r="CO27">
+        <v>2</v>
+      </c>
+      <c r="CP27">
+        <v>2</v>
+      </c>
+      <c r="CQ27">
+        <v>2</v>
+      </c>
+      <c r="CR27">
+        <v>3</v>
+      </c>
+      <c r="CS27">
+        <v>4</v>
+      </c>
+      <c r="CT27">
+        <v>2</v>
+      </c>
+      <c r="CU27">
+        <v>4</v>
+      </c>
+      <c r="CV27">
+        <v>2</v>
+      </c>
+      <c r="CW27">
+        <v>3</v>
+      </c>
+      <c r="CX27">
+        <v>2</v>
+      </c>
+      <c r="CY27">
+        <v>3</v>
+      </c>
+      <c r="CZ27">
+        <v>3</v>
+      </c>
+      <c r="DA27">
+        <v>4</v>
+      </c>
+      <c r="DB27">
+        <v>4</v>
+      </c>
+      <c r="DC27">
+        <v>2</v>
+      </c>
+      <c r="DD27">
+        <v>4</v>
+      </c>
+      <c r="DE27">
+        <v>2</v>
+      </c>
+      <c r="DF27">
+        <v>3</v>
+      </c>
+      <c r="DG27">
+        <v>3</v>
+      </c>
+      <c r="DH27">
+        <v>2</v>
+      </c>
+      <c r="DI27">
+        <v>4</v>
+      </c>
+      <c r="DJ27">
+        <v>3</v>
+      </c>
+      <c r="DK27">
+        <v>5</v>
+      </c>
+      <c r="DL27">
+        <v>3</v>
+      </c>
+      <c r="DM27">
+        <v>3</v>
+      </c>
+      <c r="DN27">
+        <v>4</v>
+      </c>
+      <c r="DO27">
+        <v>4</v>
+      </c>
+      <c r="DP27">
+        <v>4</v>
+      </c>
+      <c r="DQ27">
+        <v>4</v>
+      </c>
+      <c r="DR27">
+        <v>4</v>
+      </c>
+      <c r="DS27">
+        <v>4</v>
+      </c>
+      <c r="DT27">
+        <v>1</v>
+      </c>
+      <c r="DU27">
+        <v>1</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>185</v>
+      </c>
+      <c r="DW27">
+        <v>21</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB27">
+        <v>2465.35</v>
+      </c>
+      <c r="EC27">
+        <v>1694.24</v>
+      </c>
+      <c r="EF27">
+        <v>44.07</v>
+      </c>
+      <c r="EH27">
+        <v>56.89</v>
+      </c>
+      <c r="EJ27">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="EL27">
+        <v>44.59</v>
+      </c>
+      <c r="EN27">
+        <v>572.42999999999995</v>
+      </c>
+      <c r="EP27">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28">
+        <v>2075016188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>4</v>
+      </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <v>4</v>
+      </c>
+      <c r="AL28">
+        <v>5</v>
+      </c>
+      <c r="AM28">
+        <v>5</v>
+      </c>
+      <c r="AN28">
+        <v>5</v>
+      </c>
+      <c r="AO28">
+        <v>4</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>4</v>
+      </c>
+      <c r="AR28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
+        <v>5</v>
+      </c>
+      <c r="AT28">
+        <v>4</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>4</v>
+      </c>
+      <c r="AZ28">
+        <v>3</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
+      <c r="BB28">
+        <v>5</v>
+      </c>
+      <c r="BC28">
+        <v>2</v>
+      </c>
+      <c r="BD28">
+        <v>2</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
+      <c r="BF28">
+        <v>3</v>
+      </c>
+      <c r="BG28">
+        <v>2</v>
+      </c>
+      <c r="BH28">
+        <v>1</v>
+      </c>
+      <c r="BI28">
+        <v>4</v>
+      </c>
+      <c r="BJ28">
+        <v>5</v>
+      </c>
+      <c r="BK28">
+        <v>5</v>
+      </c>
+      <c r="BL28">
+        <v>4</v>
+      </c>
+      <c r="BM28">
+        <v>5</v>
+      </c>
+      <c r="BN28">
+        <v>5</v>
+      </c>
+      <c r="BO28">
+        <v>3</v>
+      </c>
+      <c r="BP28">
+        <v>3</v>
+      </c>
+      <c r="BQ28">
+        <v>3</v>
+      </c>
+      <c r="BR28">
+        <v>3</v>
+      </c>
+      <c r="BS28">
+        <v>3</v>
+      </c>
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28">
+        <v>1</v>
+      </c>
+      <c r="BV28">
+        <v>1</v>
+      </c>
+      <c r="BW28">
+        <v>1</v>
+      </c>
+      <c r="BX28">
+        <v>1</v>
+      </c>
+      <c r="BY28">
+        <v>3</v>
+      </c>
+      <c r="BZ28">
+        <v>5</v>
+      </c>
+      <c r="CA28">
+        <v>5</v>
+      </c>
+      <c r="CB28">
+        <v>1</v>
+      </c>
+      <c r="CC28">
+        <v>1</v>
+      </c>
+      <c r="CD28">
+        <v>2</v>
+      </c>
+      <c r="CE28">
+        <v>1</v>
+      </c>
+      <c r="CF28">
+        <v>1</v>
+      </c>
+      <c r="CG28">
+        <v>3</v>
+      </c>
+      <c r="CH28">
+        <v>3</v>
+      </c>
+      <c r="CI28">
+        <v>1</v>
+      </c>
+      <c r="CJ28">
+        <v>1</v>
+      </c>
+      <c r="CK28">
+        <v>1</v>
+      </c>
+      <c r="CL28">
+        <v>2</v>
+      </c>
+      <c r="CM28">
+        <v>3</v>
+      </c>
+      <c r="CN28">
+        <v>1</v>
+      </c>
+      <c r="CO28">
+        <v>1</v>
+      </c>
+      <c r="CP28">
+        <v>2</v>
+      </c>
+      <c r="CQ28">
+        <v>2</v>
+      </c>
+      <c r="CR28">
+        <v>3</v>
+      </c>
+      <c r="CS28">
+        <v>3</v>
+      </c>
+      <c r="CT28">
+        <v>2</v>
+      </c>
+      <c r="CU28">
+        <v>2</v>
+      </c>
+      <c r="CV28">
+        <v>1</v>
+      </c>
+      <c r="CW28">
+        <v>1</v>
+      </c>
+      <c r="CX28">
+        <v>1</v>
+      </c>
+      <c r="CY28">
+        <v>1</v>
+      </c>
+      <c r="CZ28">
+        <v>2</v>
+      </c>
+      <c r="DA28">
+        <v>2</v>
+      </c>
+      <c r="DB28">
+        <v>1</v>
+      </c>
+      <c r="DC28">
+        <v>1</v>
+      </c>
+      <c r="DD28">
+        <v>3</v>
+      </c>
+      <c r="DE28">
+        <v>1</v>
+      </c>
+      <c r="DF28">
+        <v>1</v>
+      </c>
+      <c r="DG28">
+        <v>1</v>
+      </c>
+      <c r="DH28">
+        <v>1</v>
+      </c>
+      <c r="DI28">
+        <v>1</v>
+      </c>
+      <c r="DJ28">
+        <v>2</v>
+      </c>
+      <c r="DK28">
+        <v>2</v>
+      </c>
+      <c r="DL28">
+        <v>3</v>
+      </c>
+      <c r="DM28">
+        <v>2</v>
+      </c>
+      <c r="DN28">
+        <v>3</v>
+      </c>
+      <c r="DO28">
+        <v>3</v>
+      </c>
+      <c r="DP28">
+        <v>1</v>
+      </c>
+      <c r="DQ28">
+        <v>2</v>
+      </c>
+      <c r="DR28">
+        <v>3</v>
+      </c>
+      <c r="DS28">
+        <v>1</v>
+      </c>
+      <c r="DT28">
+        <v>1</v>
+      </c>
+      <c r="DU28">
+        <v>1</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW28">
+        <v>19</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB28">
+        <v>1009.43</v>
+      </c>
+      <c r="EC28">
+        <v>38.42</v>
+      </c>
+      <c r="EF28">
+        <v>515.58000000000004</v>
+      </c>
+      <c r="EH28">
+        <v>86.8</v>
+      </c>
+      <c r="EJ28">
+        <v>86.93</v>
+      </c>
+      <c r="EL28">
+        <v>115.5</v>
+      </c>
+      <c r="EN28">
+        <v>151.27000000000001</v>
+      </c>
+      <c r="EP28">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:146" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <v>1210956195</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AF29">
+        <v>3</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>4</v>
+      </c>
+      <c r="AI29">
+        <v>5</v>
+      </c>
+      <c r="AJ29">
+        <v>4</v>
+      </c>
+      <c r="AK29">
+        <v>4</v>
+      </c>
+      <c r="AL29">
+        <v>4</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
+        <v>4</v>
+      </c>
+      <c r="AO29">
+        <v>4</v>
+      </c>
+      <c r="AP29">
+        <v>4</v>
+      </c>
+      <c r="AQ29">
+        <v>4</v>
+      </c>
+      <c r="AR29">
+        <v>4</v>
+      </c>
+      <c r="AS29">
+        <v>4</v>
+      </c>
+      <c r="AT29">
+        <v>5</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>4</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>4</v>
+      </c>
+      <c r="AZ29">
+        <v>4</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <v>4</v>
+      </c>
+      <c r="BD29">
+        <v>3</v>
+      </c>
+      <c r="BE29">
+        <v>2</v>
+      </c>
+      <c r="BF29">
+        <v>3</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>2</v>
+      </c>
+      <c r="BI29">
+        <v>2</v>
+      </c>
+      <c r="BJ29">
+        <v>3</v>
+      </c>
+      <c r="BK29">
+        <v>2</v>
+      </c>
+      <c r="BL29">
+        <v>3</v>
+      </c>
+      <c r="BM29">
+        <v>4</v>
+      </c>
+      <c r="BN29">
+        <v>4</v>
+      </c>
+      <c r="BO29">
+        <v>2</v>
+      </c>
+      <c r="BP29">
+        <v>2</v>
+      </c>
+      <c r="BQ29">
+        <v>2</v>
+      </c>
+      <c r="BR29">
+        <v>2</v>
+      </c>
+      <c r="BS29">
+        <v>2</v>
+      </c>
+      <c r="BT29">
+        <v>3</v>
+      </c>
+      <c r="BU29">
+        <v>2</v>
+      </c>
+      <c r="BV29">
+        <v>2</v>
+      </c>
+      <c r="BW29">
+        <v>3</v>
+      </c>
+      <c r="BX29">
+        <v>2</v>
+      </c>
+      <c r="BY29">
+        <v>4</v>
+      </c>
+      <c r="BZ29">
+        <v>4</v>
+      </c>
+      <c r="CA29">
+        <v>3</v>
+      </c>
+      <c r="CB29">
+        <v>4</v>
+      </c>
+      <c r="CC29">
+        <v>4</v>
+      </c>
+      <c r="CD29">
+        <v>4</v>
+      </c>
+      <c r="CE29">
+        <v>4</v>
+      </c>
+      <c r="CF29">
+        <v>3</v>
+      </c>
+      <c r="CG29">
+        <v>4</v>
+      </c>
+      <c r="CH29">
+        <v>4</v>
+      </c>
+      <c r="CI29">
+        <v>4</v>
+      </c>
+      <c r="CJ29">
+        <v>4</v>
+      </c>
+      <c r="CK29">
+        <v>3</v>
+      </c>
+      <c r="CL29">
+        <v>3</v>
+      </c>
+      <c r="CM29">
+        <v>4</v>
+      </c>
+      <c r="CN29">
+        <v>4</v>
+      </c>
+      <c r="CO29">
+        <v>3</v>
+      </c>
+      <c r="CP29">
+        <v>4</v>
+      </c>
+      <c r="CQ29">
+        <v>4</v>
+      </c>
+      <c r="CR29">
+        <v>4</v>
+      </c>
+      <c r="CS29">
+        <v>4</v>
+      </c>
+      <c r="CT29">
+        <v>4</v>
+      </c>
+      <c r="CU29">
+        <v>4</v>
+      </c>
+      <c r="CV29">
+        <v>3</v>
+      </c>
+      <c r="CW29">
+        <v>2</v>
+      </c>
+      <c r="CX29">
+        <v>3</v>
+      </c>
+      <c r="CY29">
+        <v>2</v>
+      </c>
+      <c r="CZ29">
+        <v>4</v>
+      </c>
+      <c r="DA29">
+        <v>4</v>
+      </c>
+      <c r="DB29">
+        <v>4</v>
+      </c>
+      <c r="DC29">
+        <v>2</v>
+      </c>
+      <c r="DD29">
+        <v>4</v>
+      </c>
+      <c r="DE29">
+        <v>4</v>
+      </c>
+      <c r="DF29">
+        <v>2</v>
+      </c>
+      <c r="DG29">
+        <v>3</v>
+      </c>
+      <c r="DH29">
+        <v>2</v>
+      </c>
+      <c r="DI29">
+        <v>4</v>
+      </c>
+      <c r="DJ29">
+        <v>3</v>
+      </c>
+      <c r="DK29">
+        <v>3</v>
+      </c>
+      <c r="DL29">
+        <v>3</v>
+      </c>
+      <c r="DM29">
+        <v>4</v>
+      </c>
+      <c r="DN29">
+        <v>3</v>
+      </c>
+      <c r="DO29">
+        <v>4</v>
+      </c>
+      <c r="DP29">
+        <v>3</v>
+      </c>
+      <c r="DQ29">
+        <v>4</v>
+      </c>
+      <c r="DR29">
+        <v>4</v>
+      </c>
+      <c r="DS29">
+        <v>4</v>
+      </c>
+      <c r="DT29">
+        <v>2</v>
+      </c>
+      <c r="DU29">
+        <v>2</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW29">
+        <v>22</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB29">
+        <v>894.16</v>
+      </c>
+      <c r="EC29">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="EF29">
+        <v>260.14</v>
+      </c>
+      <c r="EH29">
+        <v>67.28</v>
+      </c>
+      <c r="EJ29">
+        <v>82.81</v>
+      </c>
+      <c r="EL29">
+        <v>342.95</v>
+      </c>
+      <c r="EN29">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="EP29">
+        <v>32.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Vorstudie-Data/results.xlsx
+++ b/Vorstudie-Data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44971423-2CEC-214C-9660-27019B9AF8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDE34C-6814-CA40-AF28-DA9FC2027F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="760" windowWidth="26260" windowHeight="17440" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="760" windowWidth="28360" windowHeight="17440" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -1395,20 +1395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ET57"/>
+  <dimension ref="A1:EX57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DY5" sqref="DY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="1024" width="11.5"/>
+    <col min="3" max="5" width="11.5"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="125" width="11.5"/>
+    <col min="130" max="1028" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1784,83 +1787,83 @@
       <c r="DU1" t="s">
         <v>122</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DZ1" t="s">
         <v>123</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EA1" t="s">
         <v>124</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EB1" t="s">
         <v>125</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EC1" t="s">
         <v>126</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="ED1" t="s">
         <v>127</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EE1" t="s">
         <v>128</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EF1" t="s">
         <v>129</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EG1" t="s">
         <v>130</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EH1" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EI1" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EJ1" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EL1" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EM1" t="s">
         <v>136</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EN1" t="s">
         <v>137</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EO1" t="s">
         <v>138</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EP1" t="s">
         <v>139</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EQ1" t="s">
         <v>140</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="ER1" t="s">
         <v>141</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="ES1" t="s">
         <v>142</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ET1" t="s">
         <v>143</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EU1" t="s">
         <v>144</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="EV1" t="s">
         <v>145</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EW1" t="s">
         <v>146</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EX1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2233,44 +2236,44 @@
       <c r="DU2">
         <v>5</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DZ2" t="s">
         <v>152</v>
       </c>
-      <c r="DW2">
+      <c r="EA2">
         <v>79</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EB2" t="s">
         <v>153</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="ED2" t="s">
         <v>154</v>
       </c>
-      <c r="EB2">
+      <c r="EF2">
         <v>1007.17</v>
       </c>
-      <c r="EC2">
+      <c r="EG2">
         <v>317.01</v>
       </c>
-      <c r="EF2">
+      <c r="EJ2">
         <v>125.64</v>
       </c>
-      <c r="EH2">
+      <c r="EL2">
         <v>111.3</v>
       </c>
-      <c r="EJ2">
+      <c r="EN2">
         <v>98.93</v>
       </c>
-      <c r="EL2">
+      <c r="EP2">
         <v>117.84</v>
       </c>
-      <c r="EN2">
+      <c r="ER2">
         <v>187.95</v>
       </c>
-      <c r="EP2">
+      <c r="ET2">
         <v>48.5</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2643,44 +2646,44 @@
       <c r="DU3">
         <v>2</v>
       </c>
-      <c r="DV3" t="s">
+      <c r="DZ3" t="s">
         <v>152</v>
       </c>
-      <c r="DW3">
+      <c r="EA3">
         <v>27</v>
       </c>
-      <c r="DX3" t="s">
+      <c r="EB3" t="s">
         <v>158</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="ED3" t="s">
         <v>159</v>
       </c>
-      <c r="EB3">
+      <c r="EF3">
         <v>888.55</v>
       </c>
-      <c r="EC3">
+      <c r="EG3">
         <v>126.44</v>
       </c>
-      <c r="EF3">
+      <c r="EJ3">
         <v>115.08</v>
       </c>
-      <c r="EH3">
+      <c r="EL3">
         <v>81.13</v>
       </c>
-      <c r="EJ3">
+      <c r="EN3">
         <v>221.32</v>
       </c>
-      <c r="EL3">
+      <c r="EP3">
         <v>160.96</v>
       </c>
-      <c r="EN3">
+      <c r="ER3">
         <v>155.74</v>
       </c>
-      <c r="EP3">
+      <c r="ET3">
         <v>27.88</v>
       </c>
     </row>
-    <row r="4" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3053,44 +3056,44 @@
       <c r="DU4">
         <v>1</v>
       </c>
-      <c r="DV4" t="s">
+      <c r="DZ4" t="s">
         <v>163</v>
       </c>
-      <c r="DW4">
+      <c r="EA4">
         <v>25</v>
       </c>
-      <c r="DX4" t="s">
+      <c r="EB4" t="s">
         <v>153</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="ED4" t="s">
         <v>159</v>
       </c>
-      <c r="EB4">
+      <c r="EF4">
         <v>720.69</v>
       </c>
-      <c r="EC4">
+      <c r="EG4">
         <v>73.010000000000005</v>
       </c>
-      <c r="EF4">
+      <c r="EJ4">
         <v>88.75</v>
       </c>
-      <c r="EH4">
+      <c r="EL4">
         <v>203.02</v>
       </c>
-      <c r="EJ4">
+      <c r="EN4">
         <v>77.67</v>
       </c>
-      <c r="EL4">
+      <c r="EP4">
         <v>110.17</v>
       </c>
-      <c r="EN4">
+      <c r="ER4">
         <v>113.53</v>
       </c>
-      <c r="EP4">
+      <c r="ET4">
         <v>54.54</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3463,44 +3466,44 @@
       <c r="DU5">
         <v>5</v>
       </c>
-      <c r="DV5" t="s">
+      <c r="DZ5" t="s">
         <v>152</v>
       </c>
-      <c r="DW5">
+      <c r="EA5">
         <v>79</v>
       </c>
-      <c r="DX5" t="s">
+      <c r="EB5" t="s">
         <v>153</v>
       </c>
-      <c r="DZ5" t="s">
+      <c r="ED5" t="s">
         <v>154</v>
       </c>
-      <c r="EB5">
+      <c r="EF5">
         <v>1007.17</v>
       </c>
-      <c r="EC5">
+      <c r="EG5">
         <v>317.01</v>
       </c>
-      <c r="EF5">
+      <c r="EJ5">
         <v>125.64</v>
       </c>
-      <c r="EH5">
+      <c r="EL5">
         <v>111.3</v>
       </c>
-      <c r="EJ5">
+      <c r="EN5">
         <v>98.93</v>
       </c>
-      <c r="EL5">
+      <c r="EP5">
         <v>117.84</v>
       </c>
-      <c r="EN5">
+      <c r="ER5">
         <v>187.95</v>
       </c>
-      <c r="EP5">
+      <c r="ET5">
         <v>48.5</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3873,44 +3876,44 @@
       <c r="DU6">
         <v>1</v>
       </c>
-      <c r="DV6" t="s">
+      <c r="DZ6" t="s">
         <v>152</v>
       </c>
-      <c r="DW6">
+      <c r="EA6">
         <v>85</v>
       </c>
-      <c r="DX6" t="s">
+      <c r="EB6" t="s">
         <v>158</v>
       </c>
-      <c r="DZ6" t="s">
+      <c r="ED6" t="s">
         <v>154</v>
       </c>
-      <c r="EB6">
+      <c r="EF6">
         <v>2418.17</v>
       </c>
-      <c r="EC6">
+      <c r="EG6">
         <v>481.14</v>
       </c>
-      <c r="EF6">
+      <c r="EJ6">
         <v>209.53</v>
       </c>
-      <c r="EH6">
+      <c r="EL6">
         <v>283.07</v>
       </c>
-      <c r="EJ6">
+      <c r="EN6">
         <v>328.15</v>
       </c>
-      <c r="EL6">
+      <c r="EP6">
         <v>384.46</v>
       </c>
-      <c r="EN6">
+      <c r="ER6">
         <v>582.99</v>
       </c>
-      <c r="EP6">
+      <c r="ET6">
         <v>148.83000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4283,47 +4286,47 @@
       <c r="DU7">
         <v>2</v>
       </c>
-      <c r="DV7" t="s">
+      <c r="DZ7" t="s">
         <v>152</v>
       </c>
-      <c r="DW7">
-        <v>5</v>
-      </c>
-      <c r="DX7" t="s">
+      <c r="EA7">
+        <v>5</v>
+      </c>
+      <c r="EB7" t="s">
         <v>172</v>
       </c>
-      <c r="DY7" t="s">
+      <c r="EC7" t="s">
         <v>173</v>
       </c>
-      <c r="DZ7" t="s">
+      <c r="ED7" t="s">
         <v>174</v>
       </c>
-      <c r="EB7">
+      <c r="EF7">
         <v>1032.1500000000001</v>
       </c>
-      <c r="EC7">
+      <c r="EG7">
         <v>300.06</v>
       </c>
-      <c r="EF7">
+      <c r="EJ7">
         <v>345.66</v>
       </c>
-      <c r="EH7">
+      <c r="EL7">
         <v>74.290000000000006</v>
       </c>
-      <c r="EJ7">
+      <c r="EN7">
         <v>83.69</v>
       </c>
-      <c r="EL7">
+      <c r="EP7">
         <v>70.900000000000006</v>
       </c>
-      <c r="EN7">
+      <c r="ER7">
         <v>111.22</v>
       </c>
-      <c r="EP7">
+      <c r="ET7">
         <v>46.33</v>
       </c>
     </row>
-    <row r="8" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>11</v>
       </c>
@@ -4696,44 +4699,44 @@
       <c r="DU8">
         <v>3</v>
       </c>
-      <c r="DV8" t="s">
+      <c r="DZ8" t="s">
         <v>152</v>
       </c>
-      <c r="DW8">
+      <c r="EA8">
         <v>58</v>
       </c>
-      <c r="DX8" t="s">
+      <c r="EB8" t="s">
         <v>153</v>
       </c>
-      <c r="DZ8" t="s">
+      <c r="ED8" t="s">
         <v>174</v>
       </c>
-      <c r="EB8">
+      <c r="EF8">
         <v>2760.46</v>
       </c>
-      <c r="EC8">
+      <c r="EG8">
         <v>208.46</v>
       </c>
-      <c r="EF8">
+      <c r="EJ8">
         <v>111.58</v>
       </c>
-      <c r="EH8">
+      <c r="EL8">
         <v>105.78</v>
       </c>
-      <c r="EJ8">
+      <c r="EN8">
         <v>1740.75</v>
       </c>
-      <c r="EL8">
+      <c r="EP8">
         <v>341.32</v>
       </c>
-      <c r="EN8">
+      <c r="ER8">
         <v>203.8</v>
       </c>
-      <c r="EP8">
+      <c r="ET8">
         <v>48.77</v>
       </c>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>15</v>
       </c>
@@ -5106,44 +5109,44 @@
       <c r="DU9">
         <v>1</v>
       </c>
-      <c r="DV9" t="s">
+      <c r="DZ9" t="s">
         <v>163</v>
       </c>
-      <c r="DW9">
+      <c r="EA9">
         <v>31</v>
       </c>
-      <c r="DX9" t="s">
+      <c r="EB9" t="s">
         <v>153</v>
       </c>
-      <c r="DZ9" t="s">
+      <c r="ED9" t="s">
         <v>181</v>
       </c>
-      <c r="EB9">
+      <c r="EF9">
         <v>1053.6300000000001</v>
       </c>
-      <c r="EC9">
+      <c r="EG9">
         <v>243.41</v>
       </c>
-      <c r="EF9">
+      <c r="EJ9">
         <v>127.72</v>
       </c>
-      <c r="EH9">
+      <c r="EL9">
         <v>221.81</v>
       </c>
-      <c r="EJ9">
+      <c r="EN9">
         <v>86.04</v>
       </c>
-      <c r="EL9">
+      <c r="EP9">
         <v>126.64</v>
       </c>
-      <c r="EN9">
+      <c r="ER9">
         <v>208.02</v>
       </c>
-      <c r="EP9">
+      <c r="ET9">
         <v>39.99</v>
       </c>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
@@ -5516,44 +5519,44 @@
       <c r="DU10">
         <v>2</v>
       </c>
-      <c r="DV10" t="s">
+      <c r="DZ10" t="s">
         <v>185</v>
       </c>
-      <c r="DW10">
+      <c r="EA10">
         <v>25</v>
       </c>
-      <c r="DX10" t="s">
+      <c r="EB10" t="s">
         <v>158</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="ED10" t="s">
         <v>159</v>
       </c>
-      <c r="EB10">
+      <c r="EF10">
         <v>566.05999999999995</v>
       </c>
-      <c r="EC10">
+      <c r="EG10">
         <v>143.32</v>
       </c>
-      <c r="EF10">
+      <c r="EJ10">
         <v>88.51</v>
       </c>
-      <c r="EH10">
+      <c r="EL10">
         <v>55.83</v>
       </c>
-      <c r="EJ10">
+      <c r="EN10">
         <v>82.6</v>
       </c>
-      <c r="EL10">
+      <c r="EP10">
         <v>101.19</v>
       </c>
-      <c r="EN10">
+      <c r="ER10">
         <v>75.569999999999993</v>
       </c>
-      <c r="EP10">
+      <c r="ET10">
         <v>19.04</v>
       </c>
     </row>
-    <row r="11" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>19</v>
       </c>
@@ -5926,44 +5929,44 @@
       <c r="DU11">
         <v>1</v>
       </c>
-      <c r="DV11" t="s">
+      <c r="DZ11" t="s">
         <v>152</v>
       </c>
-      <c r="DW11">
+      <c r="EA11">
         <v>58</v>
       </c>
-      <c r="DX11" t="s">
+      <c r="EB11" t="s">
         <v>153</v>
       </c>
-      <c r="DZ11" t="s">
+      <c r="ED11" t="s">
         <v>174</v>
       </c>
-      <c r="EB11">
+      <c r="EF11">
         <v>620.66999999999996</v>
       </c>
-      <c r="EC11">
+      <c r="EG11">
         <v>158.88</v>
       </c>
-      <c r="EF11">
+      <c r="EJ11">
         <v>89.96</v>
       </c>
-      <c r="EH11">
+      <c r="EL11">
         <v>66.41</v>
       </c>
-      <c r="EJ11">
+      <c r="EN11">
         <v>131.97</v>
       </c>
-      <c r="EL11">
+      <c r="EP11">
         <v>87.06</v>
       </c>
-      <c r="EN11">
+      <c r="ER11">
         <v>61.18</v>
       </c>
-      <c r="EP11">
+      <c r="ET11">
         <v>25.21</v>
       </c>
     </row>
-    <row r="12" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>23</v>
       </c>
@@ -6336,44 +6339,44 @@
       <c r="DU12">
         <v>3</v>
       </c>
-      <c r="DV12" t="s">
+      <c r="DZ12" t="s">
         <v>152</v>
       </c>
-      <c r="DW12">
+      <c r="EA12">
         <v>58</v>
       </c>
-      <c r="DX12" t="s">
+      <c r="EB12" t="s">
         <v>153</v>
       </c>
-      <c r="DZ12" t="s">
+      <c r="ED12" t="s">
         <v>174</v>
       </c>
-      <c r="EB12">
+      <c r="EF12">
         <v>517.58000000000004</v>
       </c>
-      <c r="EC12">
+      <c r="EG12">
         <v>65.31</v>
       </c>
-      <c r="EF12">
+      <c r="EJ12">
         <v>135.91</v>
       </c>
-      <c r="EH12">
+      <c r="EL12">
         <v>86.45</v>
       </c>
-      <c r="EJ12">
+      <c r="EN12">
         <v>55.24</v>
       </c>
-      <c r="EL12">
+      <c r="EP12">
         <v>69.16</v>
       </c>
-      <c r="EN12">
+      <c r="ER12">
         <v>60.58</v>
       </c>
-      <c r="EP12">
+      <c r="ET12">
         <v>44.93</v>
       </c>
     </row>
-    <row r="13" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>24</v>
       </c>
@@ -6746,44 +6749,44 @@
       <c r="DU13">
         <v>5</v>
       </c>
-      <c r="DV13" t="s">
+      <c r="DZ13" t="s">
         <v>195</v>
       </c>
-      <c r="DW13">
+      <c r="EA13">
         <v>27</v>
       </c>
-      <c r="DX13" t="s">
+      <c r="EB13" t="s">
         <v>158</v>
       </c>
-      <c r="DZ13" t="s">
+      <c r="ED13" t="s">
         <v>196</v>
       </c>
-      <c r="EB13">
+      <c r="EF13">
         <v>758.53</v>
       </c>
-      <c r="EC13">
+      <c r="EG13">
         <v>96.64</v>
       </c>
-      <c r="EF13">
+      <c r="EJ13">
         <v>125.31</v>
       </c>
-      <c r="EH13">
+      <c r="EL13">
         <v>227.44</v>
       </c>
-      <c r="EJ13">
+      <c r="EN13">
         <v>116.3</v>
       </c>
-      <c r="EL13">
+      <c r="EP13">
         <v>101.91</v>
       </c>
-      <c r="EN13">
+      <c r="ER13">
         <v>72.83</v>
       </c>
-      <c r="EP13">
+      <c r="ET13">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>26</v>
       </c>
@@ -7156,44 +7159,44 @@
       <c r="DU14">
         <v>1</v>
       </c>
-      <c r="DV14" t="s">
+      <c r="DZ14" t="s">
         <v>163</v>
       </c>
-      <c r="DW14">
+      <c r="EA14">
         <v>54</v>
       </c>
-      <c r="DX14" t="s">
+      <c r="EB14" t="s">
         <v>153</v>
       </c>
-      <c r="DZ14" t="s">
+      <c r="ED14" t="s">
         <v>174</v>
       </c>
-      <c r="EB14">
+      <c r="EF14">
         <v>830.17</v>
       </c>
-      <c r="EC14">
+      <c r="EG14">
         <v>256.23</v>
       </c>
-      <c r="EF14">
+      <c r="EJ14">
         <v>84.89</v>
       </c>
-      <c r="EH14">
+      <c r="EL14">
         <v>75.489999999999995</v>
       </c>
-      <c r="EJ14">
+      <c r="EN14">
         <v>99.35</v>
       </c>
-      <c r="EL14">
+      <c r="EP14">
         <v>80.09</v>
       </c>
-      <c r="EN14">
+      <c r="ER14">
         <v>194.33</v>
       </c>
-      <c r="EP14">
+      <c r="ET14">
         <v>39.79</v>
       </c>
     </row>
-    <row r="15" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>27</v>
       </c>
@@ -7566,44 +7569,44 @@
       <c r="DU15">
         <v>3</v>
       </c>
-      <c r="DV15" t="s">
+      <c r="DZ15" t="s">
         <v>195</v>
       </c>
-      <c r="DW15">
+      <c r="EA15">
         <v>28</v>
       </c>
-      <c r="DX15" t="s">
+      <c r="EB15" t="s">
         <v>203</v>
       </c>
-      <c r="DZ15" t="s">
+      <c r="ED15" t="s">
         <v>159</v>
       </c>
-      <c r="EB15">
+      <c r="EF15">
         <v>795.63</v>
       </c>
-      <c r="EC15">
+      <c r="EG15">
         <v>181.82</v>
       </c>
-      <c r="EF15">
+      <c r="EJ15">
         <v>157.18</v>
       </c>
-      <c r="EH15">
+      <c r="EL15">
         <v>118.34</v>
       </c>
-      <c r="EJ15">
+      <c r="EN15">
         <v>93.76</v>
       </c>
-      <c r="EL15">
+      <c r="EP15">
         <v>110.99</v>
       </c>
-      <c r="EN15">
+      <c r="ER15">
         <v>101.66</v>
       </c>
-      <c r="EP15">
+      <c r="ET15">
         <v>31.88</v>
       </c>
     </row>
-    <row r="16" spans="1:150" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:154" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>28</v>
       </c>
@@ -7976,44 +7979,44 @@
       <c r="DU16">
         <v>2</v>
       </c>
-      <c r="DV16" t="s">
+      <c r="DZ16" t="s">
         <v>163</v>
       </c>
-      <c r="DW16">
+      <c r="EA16">
         <v>59</v>
       </c>
-      <c r="DX16" t="s">
+      <c r="EB16" t="s">
         <v>158</v>
       </c>
-      <c r="DZ16" t="s">
+      <c r="ED16" t="s">
         <v>196</v>
       </c>
-      <c r="EB16">
+      <c r="EF16">
         <v>500.36</v>
       </c>
-      <c r="EC16">
+      <c r="EG16">
         <v>54.78</v>
       </c>
-      <c r="EF16">
+      <c r="EJ16">
         <v>79.36</v>
       </c>
-      <c r="EH16">
+      <c r="EL16">
         <v>85.19</v>
       </c>
-      <c r="EJ16">
+      <c r="EN16">
         <v>80.16</v>
       </c>
-      <c r="EL16">
+      <c r="EP16">
         <v>71.56</v>
       </c>
-      <c r="EN16">
+      <c r="ER16">
         <v>99.07</v>
       </c>
-      <c r="EP16">
+      <c r="ET16">
         <v>30.24</v>
       </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>31</v>
       </c>
@@ -8386,44 +8389,44 @@
       <c r="DU17">
         <v>3</v>
       </c>
-      <c r="DV17" t="s">
+      <c r="DZ17" t="s">
         <v>163</v>
       </c>
-      <c r="DW17">
+      <c r="EA17">
         <v>28</v>
       </c>
-      <c r="DX17" t="s">
+      <c r="EB17" t="s">
         <v>203</v>
       </c>
-      <c r="DZ17" t="s">
+      <c r="ED17" t="s">
         <v>181</v>
       </c>
-      <c r="EB17">
+      <c r="EF17">
         <v>975.92</v>
       </c>
-      <c r="EC17">
+      <c r="EG17">
         <v>196.89</v>
       </c>
-      <c r="EF17">
+      <c r="EJ17">
         <v>197</v>
       </c>
-      <c r="EH17">
+      <c r="EL17">
         <v>214.73</v>
       </c>
-      <c r="EJ17">
+      <c r="EN17">
         <v>118.62</v>
       </c>
-      <c r="EL17">
+      <c r="EP17">
         <v>134.54</v>
       </c>
-      <c r="EN17">
+      <c r="ER17">
         <v>86.08</v>
       </c>
-      <c r="EP17">
+      <c r="ET17">
         <v>28.06</v>
       </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>37</v>
       </c>
@@ -8796,44 +8799,44 @@
       <c r="DU18">
         <v>2</v>
       </c>
-      <c r="DV18" t="s">
+      <c r="DZ18" t="s">
         <v>152</v>
       </c>
-      <c r="DW18">
+      <c r="EA18">
         <v>25</v>
       </c>
-      <c r="DX18" t="s">
+      <c r="EB18" t="s">
         <v>153</v>
       </c>
-      <c r="DZ18" t="s">
+      <c r="ED18" t="s">
         <v>159</v>
       </c>
-      <c r="EB18">
+      <c r="EF18">
         <v>1315.92</v>
       </c>
-      <c r="EC18">
+      <c r="EG18">
         <v>308.57</v>
       </c>
-      <c r="EF18">
+      <c r="EJ18">
         <v>197.68</v>
       </c>
-      <c r="EH18">
+      <c r="EL18">
         <v>213.06</v>
       </c>
-      <c r="EJ18">
+      <c r="EN18">
         <v>227.83</v>
       </c>
-      <c r="EL18">
+      <c r="EP18">
         <v>121.06</v>
       </c>
-      <c r="EN18">
+      <c r="ER18">
         <v>203.94</v>
       </c>
-      <c r="EP18">
+      <c r="ET18">
         <v>43.78</v>
       </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>38</v>
       </c>
@@ -9209,44 +9212,44 @@
       <c r="DU19">
         <v>1</v>
       </c>
-      <c r="DV19" t="s">
+      <c r="DZ19" t="s">
         <v>163</v>
       </c>
-      <c r="DW19">
+      <c r="EA19">
         <v>24</v>
       </c>
-      <c r="DX19" t="s">
+      <c r="EB19" t="s">
         <v>153</v>
       </c>
-      <c r="DZ19" t="s">
+      <c r="ED19" t="s">
         <v>181</v>
       </c>
-      <c r="EB19">
+      <c r="EF19">
         <v>554.34</v>
       </c>
-      <c r="EC19">
+      <c r="EG19">
         <v>60.66</v>
       </c>
-      <c r="EF19">
+      <c r="EJ19">
         <v>93.29</v>
       </c>
-      <c r="EH19">
+      <c r="EL19">
         <v>153.74</v>
       </c>
-      <c r="EJ19">
+      <c r="EN19">
         <v>77.900000000000006</v>
       </c>
-      <c r="EL19">
+      <c r="EP19">
         <v>82.34</v>
       </c>
-      <c r="EN19">
+      <c r="ER19">
         <v>65.77</v>
       </c>
-      <c r="EP19">
+      <c r="ET19">
         <v>20.64</v>
       </c>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>39</v>
       </c>
@@ -9619,44 +9622,44 @@
       <c r="DU20">
         <v>1</v>
       </c>
-      <c r="DV20" t="s">
+      <c r="DZ20" t="s">
         <v>152</v>
       </c>
-      <c r="DW20">
+      <c r="EA20">
         <v>26</v>
       </c>
-      <c r="DX20" t="s">
+      <c r="EB20" t="s">
         <v>153</v>
       </c>
-      <c r="DZ20" t="s">
+      <c r="ED20" t="s">
         <v>159</v>
       </c>
-      <c r="EB20">
+      <c r="EF20">
         <v>570.65</v>
       </c>
-      <c r="EC20">
+      <c r="EG20">
         <v>98.35</v>
       </c>
-      <c r="EF20">
+      <c r="EJ20">
         <v>87.42</v>
       </c>
-      <c r="EH20">
+      <c r="EL20">
         <v>77.7</v>
       </c>
-      <c r="EJ20">
+      <c r="EN20">
         <v>111.77</v>
       </c>
-      <c r="EL20">
+      <c r="EP20">
         <v>86.91</v>
       </c>
-      <c r="EN20">
+      <c r="ER20">
         <v>83.9</v>
       </c>
-      <c r="EP20">
+      <c r="ET20">
         <v>24.6</v>
       </c>
     </row>
-    <row r="21" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>40</v>
       </c>
@@ -10032,44 +10035,44 @@
       <c r="DU21">
         <v>1</v>
       </c>
-      <c r="DV21" t="s">
+      <c r="DZ21" t="s">
         <v>152</v>
       </c>
-      <c r="DW21">
+      <c r="EA21">
         <v>21</v>
       </c>
-      <c r="DX21" t="s">
+      <c r="EB21" t="s">
         <v>153</v>
       </c>
-      <c r="DZ21" t="s">
+      <c r="ED21" t="s">
         <v>181</v>
       </c>
-      <c r="EB21">
+      <c r="EF21">
         <v>336.9</v>
       </c>
-      <c r="EC21">
+      <c r="EG21">
         <v>12.97</v>
       </c>
-      <c r="EF21">
+      <c r="EJ21">
         <v>76.95</v>
       </c>
-      <c r="EH21">
+      <c r="EL21">
         <v>54.5</v>
       </c>
-      <c r="EJ21">
+      <c r="EN21">
         <v>60.06</v>
       </c>
-      <c r="EL21">
+      <c r="EP21">
         <v>60.49</v>
       </c>
-      <c r="EN21">
+      <c r="ER21">
         <v>55.53</v>
       </c>
-      <c r="EP21">
+      <c r="ET21">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>41</v>
       </c>
@@ -10445,44 +10448,44 @@
       <c r="DU22">
         <v>1</v>
       </c>
-      <c r="DV22" t="s">
+      <c r="DZ22" t="s">
         <v>185</v>
       </c>
-      <c r="DW22">
+      <c r="EA22">
         <v>21</v>
       </c>
-      <c r="DX22" t="s">
+      <c r="EB22" t="s">
         <v>153</v>
       </c>
-      <c r="DZ22" t="s">
+      <c r="ED22" t="s">
         <v>181</v>
       </c>
-      <c r="EB22">
+      <c r="EF22">
         <v>505.23</v>
       </c>
-      <c r="EC22">
+      <c r="EG22">
         <v>14.71</v>
       </c>
-      <c r="EF22">
+      <c r="EJ22">
         <v>68.739999999999995</v>
       </c>
-      <c r="EH22">
+      <c r="EL22">
         <v>106.19</v>
       </c>
-      <c r="EJ22">
+      <c r="EN22">
         <v>54.4</v>
       </c>
-      <c r="EL22">
+      <c r="EP22">
         <v>200.87</v>
       </c>
-      <c r="EN22">
+      <c r="ER22">
         <v>45.8</v>
       </c>
-      <c r="EP22">
+      <c r="ET22">
         <v>14.52</v>
       </c>
     </row>
-    <row r="23" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43</v>
       </c>
@@ -10858,44 +10861,44 @@
       <c r="DU23">
         <v>2</v>
       </c>
-      <c r="DV23" t="s">
+      <c r="DZ23" t="s">
         <v>185</v>
       </c>
-      <c r="DW23">
+      <c r="EA23">
         <v>21</v>
       </c>
-      <c r="DX23" t="s">
+      <c r="EB23" t="s">
         <v>158</v>
       </c>
-      <c r="DZ23" t="s">
+      <c r="ED23" t="s">
         <v>181</v>
       </c>
-      <c r="EB23">
+      <c r="EF23">
         <v>563.61</v>
       </c>
-      <c r="EC23">
+      <c r="EG23">
         <v>36.99</v>
       </c>
-      <c r="EF23">
+      <c r="EJ23">
         <v>105.47</v>
       </c>
-      <c r="EH23">
+      <c r="EL23">
         <v>89.09</v>
       </c>
-      <c r="EJ23">
+      <c r="EN23">
         <v>83.94</v>
       </c>
-      <c r="EL23">
+      <c r="EP23">
         <v>102.14</v>
       </c>
-      <c r="EN23">
+      <c r="ER23">
         <v>128.15</v>
       </c>
-      <c r="EP23">
+      <c r="ET23">
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>44</v>
       </c>
@@ -11268,44 +11271,44 @@
       <c r="DU24">
         <v>2</v>
       </c>
-      <c r="DV24" t="s">
+      <c r="DZ24" t="s">
         <v>163</v>
       </c>
-      <c r="DW24">
+      <c r="EA24">
         <v>40</v>
       </c>
-      <c r="DX24" t="s">
+      <c r="EB24" t="s">
         <v>153</v>
       </c>
-      <c r="DZ24" t="s">
+      <c r="ED24" t="s">
         <v>196</v>
       </c>
-      <c r="EB24">
+      <c r="EF24">
         <v>615.21</v>
       </c>
-      <c r="EC24">
+      <c r="EG24">
         <v>57.03</v>
       </c>
-      <c r="EF24">
+      <c r="EJ24">
         <v>109.57</v>
       </c>
-      <c r="EH24">
+      <c r="EL24">
         <v>166.36</v>
       </c>
-      <c r="EJ24">
+      <c r="EN24">
         <v>88.33</v>
       </c>
-      <c r="EL24">
+      <c r="EP24">
         <v>78.75</v>
       </c>
-      <c r="EN24">
+      <c r="ER24">
         <v>89.98</v>
       </c>
-      <c r="EP24">
+      <c r="ET24">
         <v>25.19</v>
       </c>
     </row>
-    <row r="25" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>45</v>
       </c>
@@ -11681,44 +11684,44 @@
       <c r="DU25">
         <v>1</v>
       </c>
-      <c r="DV25" t="s">
+      <c r="DZ25" t="s">
         <v>163</v>
       </c>
-      <c r="DW25">
+      <c r="EA25">
         <v>20</v>
       </c>
-      <c r="DX25" t="s">
+      <c r="EB25" t="s">
         <v>153</v>
       </c>
-      <c r="DZ25" t="s">
+      <c r="ED25" t="s">
         <v>181</v>
       </c>
-      <c r="EB25">
+      <c r="EF25">
         <v>490.79</v>
       </c>
-      <c r="EC25">
+      <c r="EG25">
         <v>43.74</v>
       </c>
-      <c r="EF25">
+      <c r="EJ25">
         <v>80.87</v>
       </c>
-      <c r="EH25">
+      <c r="EL25">
         <v>112.52</v>
       </c>
-      <c r="EJ25">
+      <c r="EN25">
         <v>97.79</v>
       </c>
-      <c r="EL25">
+      <c r="EP25">
         <v>76.7</v>
       </c>
-      <c r="EN25">
+      <c r="ER25">
         <v>59.48</v>
       </c>
-      <c r="EP25">
+      <c r="ET25">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>47</v>
       </c>
@@ -12094,44 +12097,44 @@
       <c r="DU26">
         <v>3</v>
       </c>
-      <c r="DV26" t="s">
+      <c r="DZ26" t="s">
         <v>152</v>
       </c>
-      <c r="DW26">
+      <c r="EA26">
         <v>19</v>
       </c>
-      <c r="DX26" t="s">
+      <c r="EB26" t="s">
         <v>153</v>
       </c>
-      <c r="DZ26" t="s">
+      <c r="ED26" t="s">
         <v>181</v>
       </c>
-      <c r="EB26">
+      <c r="EF26">
         <v>926.61</v>
       </c>
-      <c r="EC26">
+      <c r="EG26">
         <v>143.9</v>
       </c>
-      <c r="EF26">
+      <c r="EJ26">
         <v>78.33</v>
       </c>
-      <c r="EH26">
+      <c r="EL26">
         <v>96.82</v>
       </c>
-      <c r="EJ26">
+      <c r="EN26">
         <v>429.17</v>
       </c>
-      <c r="EL26">
+      <c r="EP26">
         <v>91.1</v>
       </c>
-      <c r="EN26">
+      <c r="ER26">
         <v>52.61</v>
       </c>
-      <c r="EP26">
+      <c r="ET26">
         <v>34.68</v>
       </c>
     </row>
-    <row r="27" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>48</v>
       </c>
@@ -12507,44 +12510,44 @@
       <c r="DU27">
         <v>1</v>
       </c>
-      <c r="DV27" t="s">
+      <c r="DZ27" t="s">
         <v>185</v>
       </c>
-      <c r="DW27">
+      <c r="EA27">
         <v>21</v>
       </c>
-      <c r="DX27" t="s">
+      <c r="EB27" t="s">
         <v>153</v>
       </c>
-      <c r="DZ27" t="s">
+      <c r="ED27" t="s">
         <v>181</v>
       </c>
-      <c r="EB27">
+      <c r="EF27">
         <v>2465.35</v>
       </c>
-      <c r="EC27">
+      <c r="EG27">
         <v>1694.24</v>
       </c>
-      <c r="EF27">
+      <c r="EJ27">
         <v>44.07</v>
       </c>
-      <c r="EH27">
+      <c r="EL27">
         <v>56.89</v>
       </c>
-      <c r="EJ27">
+      <c r="EN27">
         <v>40.729999999999997</v>
       </c>
-      <c r="EL27">
+      <c r="EP27">
         <v>44.59</v>
       </c>
-      <c r="EN27">
+      <c r="ER27">
         <v>572.42999999999995</v>
       </c>
-      <c r="EP27">
+      <c r="ET27">
         <v>12.4</v>
       </c>
     </row>
-    <row r="28" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>49</v>
       </c>
@@ -12920,44 +12923,44 @@
       <c r="DU28">
         <v>1</v>
       </c>
-      <c r="DV28" t="s">
+      <c r="DZ28" t="s">
         <v>152</v>
       </c>
-      <c r="DW28">
+      <c r="EA28">
         <v>19</v>
       </c>
-      <c r="DX28" t="s">
+      <c r="EB28" t="s">
         <v>153</v>
       </c>
-      <c r="DZ28" t="s">
+      <c r="ED28" t="s">
         <v>181</v>
       </c>
-      <c r="EB28">
+      <c r="EF28">
         <v>1009.43</v>
       </c>
-      <c r="EC28">
+      <c r="EG28">
         <v>38.42</v>
       </c>
-      <c r="EF28">
+      <c r="EJ28">
         <v>515.58000000000004</v>
       </c>
-      <c r="EH28">
+      <c r="EL28">
         <v>86.8</v>
       </c>
-      <c r="EJ28">
+      <c r="EN28">
         <v>86.93</v>
       </c>
-      <c r="EL28">
+      <c r="EP28">
         <v>115.5</v>
       </c>
-      <c r="EN28">
+      <c r="ER28">
         <v>151.27000000000001</v>
       </c>
-      <c r="EP28">
+      <c r="ET28">
         <v>14.93</v>
       </c>
     </row>
-    <row r="29" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>50</v>
       </c>
@@ -13333,44 +13336,44 @@
       <c r="DU29">
         <v>2</v>
       </c>
-      <c r="DV29" t="s">
+      <c r="DZ29" t="s">
         <v>152</v>
       </c>
-      <c r="DW29">
+      <c r="EA29">
         <v>22</v>
       </c>
-      <c r="DX29" t="s">
+      <c r="EB29" t="s">
         <v>153</v>
       </c>
-      <c r="DZ29" t="s">
+      <c r="ED29" t="s">
         <v>181</v>
       </c>
-      <c r="EB29">
+      <c r="EF29">
         <v>894.16</v>
       </c>
-      <c r="EC29">
+      <c r="EG29">
         <v>40.340000000000003</v>
       </c>
-      <c r="EF29">
+      <c r="EJ29">
         <v>260.14</v>
       </c>
-      <c r="EH29">
+      <c r="EL29">
         <v>67.28</v>
       </c>
-      <c r="EJ29">
+      <c r="EN29">
         <v>82.81</v>
       </c>
-      <c r="EL29">
+      <c r="EP29">
         <v>342.95</v>
       </c>
-      <c r="EN29">
+      <c r="ER29">
         <v>68.209999999999994</v>
       </c>
-      <c r="EP29">
+      <c r="ET29">
         <v>32.43</v>
       </c>
     </row>
-    <row r="30" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>51</v>
       </c>
@@ -13746,44 +13749,44 @@
       <c r="DU30">
         <v>3</v>
       </c>
-      <c r="DV30" t="s">
+      <c r="DZ30" t="s">
         <v>252</v>
       </c>
-      <c r="DW30">
+      <c r="EA30">
         <v>23</v>
       </c>
-      <c r="DX30" t="s">
+      <c r="EB30" t="s">
         <v>158</v>
       </c>
-      <c r="DZ30" t="s">
+      <c r="ED30" t="s">
         <v>181</v>
       </c>
-      <c r="EB30">
+      <c r="EF30">
         <v>568.70000000000005</v>
       </c>
-      <c r="EC30">
+      <c r="EG30">
         <v>113.79</v>
       </c>
-      <c r="EF30">
+      <c r="EJ30">
         <v>64.42</v>
       </c>
-      <c r="EH30">
+      <c r="EL30">
         <v>107.13</v>
       </c>
-      <c r="EJ30">
+      <c r="EN30">
         <v>79.25</v>
       </c>
-      <c r="EL30">
+      <c r="EP30">
         <v>89.55</v>
       </c>
-      <c r="EN30">
+      <c r="ER30">
         <v>76.47</v>
       </c>
-      <c r="EP30">
+      <c r="ET30">
         <v>38.090000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>52</v>
       </c>
@@ -14159,44 +14162,44 @@
       <c r="DU31">
         <v>3</v>
       </c>
-      <c r="DV31" t="s">
+      <c r="DZ31" t="s">
         <v>195</v>
       </c>
-      <c r="DW31">
+      <c r="EA31">
         <v>24</v>
       </c>
-      <c r="DX31" t="s">
+      <c r="EB31" t="s">
         <v>153</v>
       </c>
-      <c r="DZ31" t="s">
+      <c r="ED31" t="s">
         <v>159</v>
       </c>
-      <c r="EB31">
+      <c r="EF31">
         <v>331.06</v>
       </c>
-      <c r="EC31">
+      <c r="EG31">
         <v>30.32</v>
       </c>
-      <c r="EF31">
+      <c r="EJ31">
         <v>96.56</v>
       </c>
-      <c r="EH31">
+      <c r="EL31">
         <v>50.82</v>
       </c>
-      <c r="EJ31">
+      <c r="EN31">
         <v>43.38</v>
       </c>
-      <c r="EL31">
+      <c r="EP31">
         <v>51.39</v>
       </c>
-      <c r="EN31">
+      <c r="ER31">
         <v>37.06</v>
       </c>
-      <c r="EP31">
+      <c r="ET31">
         <v>21.53</v>
       </c>
     </row>
-    <row r="32" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>53</v>
       </c>
@@ -14569,44 +14572,44 @@
       <c r="DU32">
         <v>2</v>
       </c>
-      <c r="DV32" t="s">
+      <c r="DZ32" t="s">
         <v>185</v>
       </c>
-      <c r="DW32">
+      <c r="EA32">
         <v>28</v>
       </c>
-      <c r="DX32" t="s">
+      <c r="EB32" t="s">
         <v>158</v>
       </c>
-      <c r="DZ32" t="s">
+      <c r="ED32" t="s">
         <v>196</v>
       </c>
-      <c r="EB32">
+      <c r="EF32">
         <v>596.92999999999995</v>
       </c>
-      <c r="EC32">
+      <c r="EG32">
         <v>45.47</v>
       </c>
-      <c r="EF32">
+      <c r="EJ32">
         <v>85.53</v>
       </c>
-      <c r="EH32">
+      <c r="EL32">
         <v>71.12</v>
       </c>
-      <c r="EJ32">
+      <c r="EN32">
         <v>84.45</v>
       </c>
-      <c r="EL32">
+      <c r="EP32">
         <v>124.81</v>
       </c>
-      <c r="EN32">
+      <c r="ER32">
         <v>157.63</v>
       </c>
-      <c r="EP32">
+      <c r="ET32">
         <v>27.92</v>
       </c>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>54</v>
       </c>
@@ -14982,44 +14985,44 @@
       <c r="DU33">
         <v>3</v>
       </c>
-      <c r="DV33" t="s">
+      <c r="DZ33" t="s">
         <v>152</v>
       </c>
-      <c r="DW33">
+      <c r="EA33">
         <v>35</v>
       </c>
-      <c r="DX33" t="s">
+      <c r="EB33" t="s">
         <v>153</v>
       </c>
-      <c r="DZ33" t="s">
+      <c r="ED33" t="s">
         <v>196</v>
       </c>
-      <c r="EB33">
+      <c r="EF33">
         <v>1012.98</v>
       </c>
-      <c r="EC33">
+      <c r="EG33">
         <v>168.41</v>
       </c>
-      <c r="EF33">
+      <c r="EJ33">
         <v>216.48</v>
       </c>
-      <c r="EH33">
+      <c r="EL33">
         <v>102.89</v>
       </c>
-      <c r="EJ33">
+      <c r="EN33">
         <v>97.96</v>
       </c>
-      <c r="EL33">
+      <c r="EP33">
         <v>147.21</v>
       </c>
-      <c r="EN33">
+      <c r="ER33">
         <v>260.91000000000003</v>
       </c>
-      <c r="EP33">
+      <c r="ET33">
         <v>19.12</v>
       </c>
     </row>
-    <row r="34" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>55</v>
       </c>
@@ -15395,44 +15398,44 @@
       <c r="DU34">
         <v>1</v>
       </c>
-      <c r="DV34" t="s">
+      <c r="DZ34" t="s">
         <v>163</v>
       </c>
-      <c r="DW34">
+      <c r="EA34">
         <v>22</v>
       </c>
-      <c r="DX34" t="s">
+      <c r="EB34" t="s">
         <v>158</v>
       </c>
-      <c r="DZ34" t="s">
+      <c r="ED34" t="s">
         <v>181</v>
       </c>
-      <c r="EB34">
+      <c r="EF34">
         <v>1142.7</v>
       </c>
-      <c r="EC34">
+      <c r="EG34">
         <v>55.91</v>
       </c>
-      <c r="EF34">
+      <c r="EJ34">
         <v>239.68</v>
       </c>
-      <c r="EH34">
+      <c r="EL34">
         <v>165.7</v>
       </c>
-      <c r="EJ34">
+      <c r="EN34">
         <v>257.31</v>
       </c>
-      <c r="EL34">
+      <c r="EP34">
         <v>182.21</v>
       </c>
-      <c r="EN34">
+      <c r="ER34">
         <v>212.15</v>
       </c>
-      <c r="EP34">
+      <c r="ET34">
         <v>29.74</v>
       </c>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>57</v>
       </c>
@@ -15808,44 +15811,44 @@
       <c r="DU35">
         <v>1</v>
       </c>
-      <c r="DV35" t="s">
+      <c r="DZ35" t="s">
         <v>163</v>
       </c>
-      <c r="DW35">
+      <c r="EA35">
         <v>22</v>
       </c>
-      <c r="DX35" t="s">
+      <c r="EB35" t="s">
         <v>153</v>
       </c>
-      <c r="DZ35" t="s">
+      <c r="ED35" t="s">
         <v>181</v>
       </c>
-      <c r="EB35">
+      <c r="EF35">
         <v>590.99</v>
       </c>
-      <c r="EC35">
+      <c r="EG35">
         <v>32.340000000000003</v>
       </c>
-      <c r="EF35">
+      <c r="EJ35">
         <v>118.12</v>
       </c>
-      <c r="EH35">
+      <c r="EL35">
         <v>93.23</v>
       </c>
-      <c r="EJ35">
+      <c r="EN35">
         <v>77.260000000000005</v>
       </c>
-      <c r="EL35">
+      <c r="EP35">
         <v>102.83</v>
       </c>
-      <c r="EN35">
+      <c r="ER35">
         <v>150.49</v>
       </c>
-      <c r="EP35">
+      <c r="ET35">
         <v>16.72</v>
       </c>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>58</v>
       </c>
@@ -16221,44 +16224,44 @@
       <c r="DU36">
         <v>1</v>
       </c>
-      <c r="DV36" t="s">
+      <c r="DZ36" t="s">
         <v>163</v>
       </c>
-      <c r="DW36">
+      <c r="EA36">
         <v>21</v>
       </c>
-      <c r="DX36" t="s">
+      <c r="EB36" t="s">
         <v>153</v>
       </c>
-      <c r="DZ36" t="s">
+      <c r="ED36" t="s">
         <v>181</v>
       </c>
-      <c r="EB36">
+      <c r="EF36">
         <v>584.86</v>
       </c>
-      <c r="EC36">
+      <c r="EG36">
         <v>202.32</v>
       </c>
-      <c r="EF36">
+      <c r="EJ36">
         <v>49.38</v>
       </c>
-      <c r="EH36">
+      <c r="EL36">
         <v>65.239999999999995</v>
       </c>
-      <c r="EJ36">
+      <c r="EN36">
         <v>70.180000000000007</v>
       </c>
-      <c r="EL36">
+      <c r="EP36">
         <v>90.77</v>
       </c>
-      <c r="EN36">
+      <c r="ER36">
         <v>87.73</v>
       </c>
-      <c r="EP36">
+      <c r="ET36">
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>59</v>
       </c>
@@ -16634,44 +16637,44 @@
       <c r="DU37">
         <v>3</v>
       </c>
-      <c r="DV37" t="s">
+      <c r="DZ37" t="s">
         <v>163</v>
       </c>
-      <c r="DW37">
+      <c r="EA37">
         <v>26</v>
       </c>
-      <c r="DX37" t="s">
+      <c r="EB37" t="s">
         <v>153</v>
       </c>
-      <c r="DZ37" t="s">
+      <c r="ED37" t="s">
         <v>181</v>
       </c>
-      <c r="EB37">
+      <c r="EF37">
         <v>437.04</v>
       </c>
-      <c r="EC37">
+      <c r="EG37">
         <v>61.63</v>
       </c>
-      <c r="EF37">
+      <c r="EJ37">
         <v>67.959999999999994</v>
       </c>
-      <c r="EH37">
+      <c r="EL37">
         <v>65.45</v>
       </c>
-      <c r="EJ37">
+      <c r="EN37">
         <v>54.84</v>
       </c>
-      <c r="EL37">
+      <c r="EP37">
         <v>58.15</v>
       </c>
-      <c r="EN37">
+      <c r="ER37">
         <v>101.57</v>
       </c>
-      <c r="EP37">
+      <c r="ET37">
         <v>27.44</v>
       </c>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>61</v>
       </c>
@@ -17047,44 +17050,44 @@
       <c r="DU38">
         <v>2</v>
       </c>
-      <c r="DV38" t="s">
+      <c r="DZ38" t="s">
         <v>185</v>
       </c>
-      <c r="DW38">
+      <c r="EA38">
         <v>22</v>
       </c>
-      <c r="DX38" t="s">
+      <c r="EB38" t="s">
         <v>158</v>
       </c>
-      <c r="DZ38" t="s">
+      <c r="ED38" t="s">
         <v>181</v>
       </c>
-      <c r="EB38">
+      <c r="EF38">
         <v>583.16999999999996</v>
       </c>
-      <c r="EC38">
+      <c r="EG38">
         <v>42.9</v>
       </c>
-      <c r="EF38">
+      <c r="EJ38">
         <v>88.85</v>
       </c>
-      <c r="EH38">
+      <c r="EL38">
         <v>99.73</v>
       </c>
-      <c r="EJ38">
+      <c r="EN38">
         <v>83.9</v>
       </c>
-      <c r="EL38">
+      <c r="EP38">
         <v>120.14</v>
       </c>
-      <c r="EN38">
+      <c r="ER38">
         <v>91.57</v>
       </c>
-      <c r="EP38">
+      <c r="ET38">
         <v>56.08</v>
       </c>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>62</v>
       </c>
@@ -17460,44 +17463,44 @@
       <c r="DU39">
         <v>2</v>
       </c>
-      <c r="DV39" t="s">
+      <c r="DZ39" t="s">
         <v>152</v>
       </c>
-      <c r="DW39">
+      <c r="EA39">
         <v>33</v>
       </c>
-      <c r="DX39" t="s">
+      <c r="EB39" t="s">
         <v>153</v>
       </c>
-      <c r="DZ39" t="s">
+      <c r="ED39" t="s">
         <v>159</v>
       </c>
-      <c r="EB39">
+      <c r="EF39">
         <v>396.82</v>
       </c>
-      <c r="EC39">
+      <c r="EG39">
         <v>59.62</v>
       </c>
-      <c r="EF39">
+      <c r="EJ39">
         <v>76.5</v>
       </c>
-      <c r="EH39">
+      <c r="EL39">
         <v>45.74</v>
       </c>
-      <c r="EJ39">
+      <c r="EN39">
         <v>71.02</v>
       </c>
-      <c r="EL39">
+      <c r="EP39">
         <v>70.17</v>
       </c>
-      <c r="EN39">
+      <c r="ER39">
         <v>57.29</v>
       </c>
-      <c r="EP39">
+      <c r="ET39">
         <v>16.48</v>
       </c>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>63</v>
       </c>
@@ -17873,44 +17876,44 @@
       <c r="DU40">
         <v>5</v>
       </c>
-      <c r="DV40" t="s">
+      <c r="DZ40" t="s">
         <v>163</v>
       </c>
-      <c r="DW40">
+      <c r="EA40">
         <v>22</v>
       </c>
-      <c r="DX40" t="s">
+      <c r="EB40" t="s">
         <v>158</v>
       </c>
-      <c r="DZ40" t="s">
+      <c r="ED40" t="s">
         <v>181</v>
       </c>
-      <c r="EB40">
+      <c r="EF40">
         <v>560.66</v>
       </c>
-      <c r="EC40">
+      <c r="EG40">
         <v>90.62</v>
       </c>
-      <c r="EF40">
+      <c r="EJ40">
         <v>83.31</v>
       </c>
-      <c r="EH40">
+      <c r="EL40">
         <v>123.34</v>
       </c>
-      <c r="EJ40">
+      <c r="EN40">
         <v>77.59</v>
       </c>
-      <c r="EL40">
+      <c r="EP40">
         <v>87.14</v>
       </c>
-      <c r="EN40">
+      <c r="ER40">
         <v>77.5</v>
       </c>
-      <c r="EP40">
+      <c r="ET40">
         <v>21.16</v>
       </c>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>64</v>
       </c>
@@ -18286,44 +18289,44 @@
       <c r="DU41">
         <v>3</v>
       </c>
-      <c r="DV41" t="s">
+      <c r="DZ41" t="s">
         <v>152</v>
       </c>
-      <c r="DW41">
+      <c r="EA41">
         <v>30</v>
       </c>
-      <c r="DX41" t="s">
+      <c r="EB41" t="s">
         <v>153</v>
       </c>
-      <c r="DZ41" t="s">
+      <c r="ED41" t="s">
         <v>181</v>
       </c>
-      <c r="EB41">
+      <c r="EF41">
         <v>325.5</v>
       </c>
-      <c r="EC41">
+      <c r="EG41">
         <v>20.28</v>
       </c>
-      <c r="EF41">
+      <c r="EJ41">
         <v>42.07</v>
       </c>
-      <c r="EH41">
+      <c r="EL41">
         <v>32.03</v>
       </c>
-      <c r="EJ41">
+      <c r="EN41">
         <v>70.61</v>
       </c>
-      <c r="EL41">
+      <c r="EP41">
         <v>84.61</v>
       </c>
-      <c r="EN41">
+      <c r="ER41">
         <v>57.75</v>
       </c>
-      <c r="EP41">
+      <c r="ET41">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>65</v>
       </c>
@@ -18699,44 +18702,44 @@
       <c r="DU42">
         <v>2</v>
       </c>
-      <c r="DV42" t="s">
+      <c r="DZ42" t="s">
         <v>163</v>
       </c>
-      <c r="DW42">
+      <c r="EA42">
         <v>48</v>
       </c>
-      <c r="DX42" t="s">
+      <c r="EB42" t="s">
         <v>153</v>
       </c>
-      <c r="DZ42" t="s">
+      <c r="ED42" t="s">
         <v>181</v>
       </c>
-      <c r="EB42">
+      <c r="EF42">
         <v>615.22</v>
       </c>
-      <c r="EC42">
+      <c r="EG42">
         <v>87.12</v>
       </c>
-      <c r="EF42">
+      <c r="EJ42">
         <v>66.16</v>
       </c>
-      <c r="EH42">
+      <c r="EL42">
         <v>79.739999999999995</v>
       </c>
-      <c r="EJ42">
+      <c r="EN42">
         <v>79.540000000000006</v>
       </c>
-      <c r="EL42">
+      <c r="EP42">
         <v>101.03</v>
       </c>
-      <c r="EN42">
+      <c r="ER42">
         <v>162.9</v>
       </c>
-      <c r="EP42">
+      <c r="ET42">
         <v>38.729999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>66</v>
       </c>
@@ -19112,44 +19115,44 @@
       <c r="DU43">
         <v>2</v>
       </c>
-      <c r="DV43" t="s">
+      <c r="DZ43" t="s">
         <v>152</v>
       </c>
-      <c r="DW43">
+      <c r="EA43">
         <v>20</v>
       </c>
-      <c r="DX43" t="s">
+      <c r="EB43" t="s">
         <v>153</v>
       </c>
-      <c r="DZ43" t="s">
+      <c r="ED43" t="s">
         <v>181</v>
       </c>
-      <c r="EB43">
+      <c r="EF43">
         <v>249.52</v>
       </c>
-      <c r="EC43">
+      <c r="EG43">
         <v>17.04</v>
       </c>
-      <c r="EF43">
+      <c r="EJ43">
         <v>32.32</v>
       </c>
-      <c r="EH43">
+      <c r="EL43">
         <v>53.85</v>
       </c>
-      <c r="EJ43">
+      <c r="EN43">
         <v>72.06</v>
       </c>
-      <c r="EL43">
+      <c r="EP43">
         <v>32.11</v>
       </c>
-      <c r="EN43">
+      <c r="ER43">
         <v>26.35</v>
       </c>
-      <c r="EP43">
+      <c r="ET43">
         <v>15.79</v>
       </c>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>67</v>
       </c>
@@ -19522,44 +19525,44 @@
       <c r="DU44">
         <v>1</v>
       </c>
-      <c r="DV44" t="s">
+      <c r="DZ44" t="s">
         <v>195</v>
       </c>
-      <c r="DW44">
+      <c r="EA44">
         <v>28</v>
       </c>
-      <c r="DX44" t="s">
+      <c r="EB44" t="s">
         <v>158</v>
       </c>
-      <c r="DZ44" t="s">
+      <c r="ED44" t="s">
         <v>159</v>
       </c>
-      <c r="EB44">
+      <c r="EF44">
         <v>1071.78</v>
       </c>
-      <c r="EC44">
+      <c r="EG44">
         <v>272.52</v>
       </c>
-      <c r="EF44">
+      <c r="EJ44">
         <v>271.41000000000003</v>
       </c>
-      <c r="EH44">
+      <c r="EL44">
         <v>124.37</v>
       </c>
-      <c r="EJ44">
+      <c r="EN44">
         <v>73.790000000000006</v>
       </c>
-      <c r="EL44">
+      <c r="EP44">
         <v>188</v>
       </c>
-      <c r="EN44">
+      <c r="ER44">
         <v>112.69</v>
       </c>
-      <c r="EP44">
+      <c r="ET44">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>68</v>
       </c>
@@ -19935,44 +19938,44 @@
       <c r="DU45">
         <v>1</v>
       </c>
-      <c r="DV45" t="s">
+      <c r="DZ45" t="s">
         <v>195</v>
       </c>
-      <c r="DW45">
+      <c r="EA45">
         <v>24</v>
       </c>
-      <c r="DX45" t="s">
+      <c r="EB45" t="s">
         <v>153</v>
       </c>
-      <c r="DZ45" t="s">
+      <c r="ED45" t="s">
         <v>181</v>
       </c>
-      <c r="EB45">
+      <c r="EF45">
         <v>904.03</v>
       </c>
-      <c r="EC45">
+      <c r="EG45">
         <v>218.85</v>
       </c>
-      <c r="EF45">
+      <c r="EJ45">
         <v>185.53</v>
       </c>
-      <c r="EH45">
+      <c r="EL45">
         <v>59.29</v>
       </c>
-      <c r="EJ45">
+      <c r="EN45">
         <v>104.87</v>
       </c>
-      <c r="EL45">
+      <c r="EP45">
         <v>145.72</v>
       </c>
-      <c r="EN45">
+      <c r="ER45">
         <v>167.06</v>
       </c>
-      <c r="EP45">
+      <c r="ET45">
         <v>22.71</v>
       </c>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>69</v>
       </c>
@@ -20348,44 +20351,44 @@
       <c r="DU46">
         <v>1</v>
       </c>
-      <c r="DV46" t="s">
+      <c r="DZ46" t="s">
         <v>252</v>
       </c>
-      <c r="DW46">
+      <c r="EA46">
         <v>21</v>
       </c>
-      <c r="DX46" t="s">
+      <c r="EB46" t="s">
         <v>158</v>
       </c>
-      <c r="DZ46" t="s">
+      <c r="ED46" t="s">
         <v>181</v>
       </c>
-      <c r="EB46">
+      <c r="EF46">
         <v>396.09</v>
       </c>
-      <c r="EC46">
+      <c r="EG46">
         <v>24.9</v>
       </c>
-      <c r="EF46">
+      <c r="EJ46">
         <v>108.91</v>
       </c>
-      <c r="EH46">
+      <c r="EL46">
         <v>44.91</v>
       </c>
-      <c r="EJ46">
+      <c r="EN46">
         <v>59.53</v>
       </c>
-      <c r="EL46">
+      <c r="EP46">
         <v>79.849999999999994</v>
       </c>
-      <c r="EN46">
+      <c r="ER46">
         <v>61.12</v>
       </c>
-      <c r="EP46">
+      <c r="ET46">
         <v>16.87</v>
       </c>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>70</v>
       </c>
@@ -20761,44 +20764,44 @@
       <c r="DU47">
         <v>3</v>
       </c>
-      <c r="DV47" t="s">
+      <c r="DZ47" t="s">
         <v>152</v>
       </c>
-      <c r="DW47">
+      <c r="EA47">
         <v>43</v>
       </c>
-      <c r="DX47" t="s">
+      <c r="EB47" t="s">
         <v>158</v>
       </c>
-      <c r="DZ47" t="s">
+      <c r="ED47" t="s">
         <v>159</v>
       </c>
-      <c r="EB47">
+      <c r="EF47">
         <v>619.03</v>
       </c>
-      <c r="EC47">
+      <c r="EG47">
         <v>160.11000000000001</v>
       </c>
-      <c r="EF47">
+      <c r="EJ47">
         <v>41.59</v>
       </c>
-      <c r="EH47">
+      <c r="EL47">
         <v>189.36</v>
       </c>
-      <c r="EJ47">
+      <c r="EN47">
         <v>100.99</v>
       </c>
-      <c r="EL47">
+      <c r="EP47">
         <v>50.97</v>
       </c>
-      <c r="EN47">
+      <c r="ER47">
         <v>39.93</v>
       </c>
-      <c r="EP47">
+      <c r="ET47">
         <v>36.08</v>
       </c>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>71</v>
       </c>
@@ -21174,44 +21177,44 @@
       <c r="DU48">
         <v>2</v>
       </c>
-      <c r="DV48" t="s">
+      <c r="DZ48" t="s">
         <v>152</v>
       </c>
-      <c r="DW48">
+      <c r="EA48">
         <v>23</v>
       </c>
-      <c r="DX48" t="s">
+      <c r="EB48" t="s">
         <v>153</v>
       </c>
-      <c r="DZ48" t="s">
+      <c r="ED48" t="s">
         <v>159</v>
       </c>
-      <c r="EB48">
+      <c r="EF48">
         <v>692.26</v>
       </c>
-      <c r="EC48">
+      <c r="EG48">
         <v>57.78</v>
       </c>
-      <c r="EF48">
+      <c r="EJ48">
         <v>110.75</v>
       </c>
-      <c r="EH48">
+      <c r="EL48">
         <v>125.2</v>
       </c>
-      <c r="EJ48">
+      <c r="EN48">
         <v>116.66</v>
       </c>
-      <c r="EL48">
+      <c r="EP48">
         <v>124.98</v>
       </c>
-      <c r="EN48">
+      <c r="ER48">
         <v>142.09</v>
       </c>
-      <c r="EP48">
+      <c r="ET48">
         <v>14.8</v>
       </c>
     </row>
-    <row r="49" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>72</v>
       </c>
@@ -21587,44 +21590,44 @@
       <c r="DU49">
         <v>1</v>
       </c>
-      <c r="DV49" t="s">
+      <c r="DZ49" t="s">
         <v>163</v>
       </c>
-      <c r="DW49">
+      <c r="EA49">
         <v>20</v>
       </c>
-      <c r="DX49" t="s">
+      <c r="EB49" t="s">
         <v>153</v>
       </c>
-      <c r="DZ49" t="s">
+      <c r="ED49" t="s">
         <v>181</v>
       </c>
-      <c r="EB49">
+      <c r="EF49">
         <v>764.47</v>
       </c>
-      <c r="EC49">
+      <c r="EG49">
         <v>55.78</v>
       </c>
-      <c r="EF49">
+      <c r="EJ49">
         <v>222.82</v>
       </c>
-      <c r="EH49">
+      <c r="EL49">
         <v>146.96</v>
       </c>
-      <c r="EJ49">
+      <c r="EN49">
         <v>73.2</v>
       </c>
-      <c r="EL49">
+      <c r="EP49">
         <v>137.16</v>
       </c>
-      <c r="EN49">
+      <c r="ER49">
         <v>104.56</v>
       </c>
-      <c r="EP49">
+      <c r="ET49">
         <v>23.99</v>
       </c>
     </row>
-    <row r="50" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>73</v>
       </c>
@@ -21997,44 +22000,44 @@
       <c r="DU50">
         <v>1</v>
       </c>
-      <c r="DV50" t="s">
+      <c r="DZ50" t="s">
         <v>163</v>
       </c>
-      <c r="DW50">
+      <c r="EA50">
         <v>38</v>
       </c>
-      <c r="DX50" t="s">
+      <c r="EB50" t="s">
         <v>153</v>
       </c>
-      <c r="DZ50" t="s">
+      <c r="ED50" t="s">
         <v>159</v>
       </c>
-      <c r="EB50">
+      <c r="EF50">
         <v>948.35</v>
       </c>
-      <c r="EC50">
+      <c r="EG50">
         <v>335.36</v>
       </c>
-      <c r="EF50">
+      <c r="EJ50">
         <v>116.54</v>
       </c>
-      <c r="EH50">
+      <c r="EL50">
         <v>78.72</v>
       </c>
-      <c r="EJ50">
+      <c r="EN50">
         <v>185.31</v>
       </c>
-      <c r="EL50">
+      <c r="EP50">
         <v>115.51</v>
       </c>
-      <c r="EN50">
+      <c r="ER50">
         <v>83.98</v>
       </c>
-      <c r="EP50">
+      <c r="ET50">
         <v>32.93</v>
       </c>
     </row>
-    <row r="51" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>74</v>
       </c>
@@ -22410,44 +22413,44 @@
       <c r="DU51">
         <v>3</v>
       </c>
-      <c r="DV51" t="s">
+      <c r="DZ51" t="s">
         <v>195</v>
       </c>
-      <c r="DW51">
+      <c r="EA51">
         <v>26</v>
       </c>
-      <c r="DX51" t="s">
+      <c r="EB51" t="s">
         <v>153</v>
       </c>
-      <c r="DZ51" t="s">
+      <c r="ED51" t="s">
         <v>181</v>
       </c>
-      <c r="EB51">
+      <c r="EF51">
         <v>465.33</v>
       </c>
-      <c r="EC51">
+      <c r="EG51">
         <v>145.63999999999999</v>
       </c>
-      <c r="EF51">
+      <c r="EJ51">
         <v>101.67</v>
       </c>
-      <c r="EH51">
+      <c r="EL51">
         <v>74.81</v>
       </c>
-      <c r="EJ51">
+      <c r="EN51">
         <v>44.26</v>
       </c>
-      <c r="EL51">
+      <c r="EP51">
         <v>39.36</v>
       </c>
-      <c r="EN51">
+      <c r="ER51">
         <v>42.72</v>
       </c>
-      <c r="EP51">
+      <c r="ET51">
         <v>16.87</v>
       </c>
     </row>
-    <row r="52" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>75</v>
       </c>
@@ -22823,44 +22826,44 @@
       <c r="DU52">
         <v>4</v>
       </c>
-      <c r="DV52" t="s">
+      <c r="DZ52" t="s">
         <v>185</v>
       </c>
-      <c r="DW52">
+      <c r="EA52">
         <v>41</v>
       </c>
-      <c r="DX52" t="s">
+      <c r="EB52" t="s">
         <v>153</v>
       </c>
-      <c r="DZ52" t="s">
+      <c r="ED52" t="s">
         <v>196</v>
       </c>
-      <c r="EB52">
+      <c r="EF52">
         <v>411.12</v>
       </c>
-      <c r="EC52">
+      <c r="EG52">
         <v>52.06</v>
       </c>
-      <c r="EF52">
+      <c r="EJ52">
         <v>59.59</v>
       </c>
-      <c r="EH52">
+      <c r="EL52">
         <v>63.96</v>
       </c>
-      <c r="EJ52">
+      <c r="EN52">
         <v>79.45</v>
       </c>
-      <c r="EL52">
+      <c r="EP52">
         <v>66.64</v>
       </c>
-      <c r="EN52">
+      <c r="ER52">
         <v>71.239999999999995</v>
       </c>
-      <c r="EP52">
+      <c r="ET52">
         <v>18.18</v>
       </c>
     </row>
-    <row r="53" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>76</v>
       </c>
@@ -23236,44 +23239,44 @@
       <c r="DU53">
         <v>1</v>
       </c>
-      <c r="DV53" t="s">
+      <c r="DZ53" t="s">
         <v>252</v>
       </c>
-      <c r="DW53">
+      <c r="EA53">
         <v>21</v>
       </c>
-      <c r="DX53" t="s">
+      <c r="EB53" t="s">
         <v>158</v>
       </c>
-      <c r="DZ53" t="s">
+      <c r="ED53" t="s">
         <v>181</v>
       </c>
-      <c r="EB53">
+      <c r="EF53">
         <v>768.09</v>
       </c>
-      <c r="EC53">
+      <c r="EG53">
         <v>107.26</v>
       </c>
-      <c r="EF53">
+      <c r="EJ53">
         <v>85.63</v>
       </c>
-      <c r="EH53">
+      <c r="EL53">
         <v>64.63</v>
       </c>
-      <c r="EJ53">
+      <c r="EN53">
         <v>245.01</v>
       </c>
-      <c r="EL53">
+      <c r="EP53">
         <v>123.27</v>
       </c>
-      <c r="EN53">
+      <c r="ER53">
         <v>125.74</v>
       </c>
-      <c r="EP53">
+      <c r="ET53">
         <v>16.55</v>
       </c>
     </row>
-    <row r="54" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>77</v>
       </c>
@@ -23649,44 +23652,44 @@
       <c r="DU54">
         <v>2</v>
       </c>
-      <c r="DV54" t="s">
+      <c r="DZ54" t="s">
         <v>185</v>
       </c>
-      <c r="DW54">
+      <c r="EA54">
         <v>21</v>
       </c>
-      <c r="DX54" t="s">
+      <c r="EB54" t="s">
         <v>153</v>
       </c>
-      <c r="DZ54" t="s">
+      <c r="ED54" t="s">
         <v>181</v>
       </c>
-      <c r="EB54">
+      <c r="EF54">
         <v>690.58</v>
       </c>
-      <c r="EC54">
+      <c r="EG54">
         <v>71.430000000000007</v>
       </c>
-      <c r="EF54">
+      <c r="EJ54">
         <v>78.069999999999993</v>
       </c>
-      <c r="EH54">
+      <c r="EL54">
         <v>99.96</v>
       </c>
-      <c r="EJ54">
+      <c r="EN54">
         <v>116.83</v>
       </c>
-      <c r="EL54">
+      <c r="EP54">
         <v>108.27</v>
       </c>
-      <c r="EN54">
+      <c r="ER54">
         <v>177.21</v>
       </c>
-      <c r="EP54">
+      <c r="ET54">
         <v>38.81</v>
       </c>
     </row>
-    <row r="55" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>78</v>
       </c>
@@ -24062,44 +24065,44 @@
       <c r="DU55">
         <v>5</v>
       </c>
-      <c r="DV55" t="s">
+      <c r="DZ55" t="s">
         <v>163</v>
       </c>
-      <c r="DW55">
+      <c r="EA55">
         <v>21</v>
       </c>
-      <c r="DX55" t="s">
+      <c r="EB55" t="s">
         <v>153</v>
       </c>
-      <c r="DZ55" t="s">
+      <c r="ED55" t="s">
         <v>181</v>
       </c>
-      <c r="EB55">
+      <c r="EF55">
         <v>598.99</v>
       </c>
-      <c r="EC55">
+      <c r="EG55">
         <v>134.62</v>
       </c>
-      <c r="EF55">
+      <c r="EJ55">
         <v>66.650000000000006</v>
       </c>
-      <c r="EH55">
+      <c r="EL55">
         <v>65.22</v>
       </c>
-      <c r="EJ55">
+      <c r="EN55">
         <v>98.14</v>
       </c>
-      <c r="EL55">
+      <c r="EP55">
         <v>134.47999999999999</v>
       </c>
-      <c r="EN55">
+      <c r="ER55">
         <v>73.89</v>
       </c>
-      <c r="EP55">
+      <c r="ET55">
         <v>25.99</v>
       </c>
     </row>
-    <row r="56" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>81</v>
       </c>
@@ -24472,44 +24475,44 @@
       <c r="DU56">
         <v>3</v>
       </c>
-      <c r="DV56" t="s">
+      <c r="DZ56" t="s">
         <v>152</v>
       </c>
-      <c r="DW56">
+      <c r="EA56">
         <v>20</v>
       </c>
-      <c r="DX56" t="s">
+      <c r="EB56" t="s">
         <v>153</v>
       </c>
-      <c r="DZ56" t="s">
+      <c r="ED56" t="s">
         <v>181</v>
       </c>
-      <c r="EB56">
+      <c r="EF56">
         <v>525.98</v>
       </c>
-      <c r="EC56">
+      <c r="EG56">
         <v>135.56</v>
       </c>
-      <c r="EF56">
+      <c r="EJ56">
         <v>71.099999999999994</v>
       </c>
-      <c r="EH56">
+      <c r="EL56">
         <v>72.12</v>
       </c>
-      <c r="EJ56">
+      <c r="EN56">
         <v>62</v>
       </c>
-      <c r="EL56">
+      <c r="EP56">
         <v>107.97</v>
       </c>
-      <c r="EN56">
+      <c r="ER56">
         <v>60.69</v>
       </c>
-      <c r="EP56">
+      <c r="ET56">
         <v>16.54</v>
       </c>
     </row>
-    <row r="57" spans="1:146" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>85</v>
       </c>
@@ -24885,40 +24888,40 @@
       <c r="DU57">
         <v>1</v>
       </c>
-      <c r="DV57" t="s">
+      <c r="DZ57" t="s">
         <v>185</v>
       </c>
-      <c r="DW57">
+      <c r="EA57">
         <v>20</v>
       </c>
-      <c r="DX57" t="s">
+      <c r="EB57" t="s">
         <v>153</v>
       </c>
-      <c r="DZ57" t="s">
+      <c r="ED57" t="s">
         <v>181</v>
       </c>
-      <c r="EB57">
+      <c r="EF57">
         <v>466.49</v>
       </c>
-      <c r="EC57">
+      <c r="EG57">
         <v>46.94</v>
       </c>
-      <c r="EF57">
+      <c r="EJ57">
         <v>62.81</v>
       </c>
-      <c r="EH57">
+      <c r="EL57">
         <v>76.97</v>
       </c>
-      <c r="EJ57">
+      <c r="EN57">
         <v>103.95</v>
       </c>
-      <c r="EL57">
+      <c r="EP57">
         <v>59.57</v>
       </c>
-      <c r="EN57">
+      <c r="ER57">
         <v>93.75</v>
       </c>
-      <c r="EP57">
+      <c r="ET57">
         <v>22.5</v>
       </c>
     </row>
